--- a/INTLINE/data/542/BOKNA/Quarterly_Nominal_SA.xlsx
+++ b/INTLINE/data/542/BOKNA/Quarterly_Nominal_SA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72F36CB8-7B2D-478D-976C-F70784E90CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20D91D58-3F1F-46A7-A809-68F142232F8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="23880" windowHeight="9870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="13095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -990,775 +990,775 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3603,137 +3603,137 @@
       </c>
     </row>
     <row r="2" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>256</v>
       </c>
       <c r="E2" s="6">
-        <v>58.5</v>
+        <v>58.48</v>
       </c>
       <c r="F2" s="7">
-        <v>59.5</v>
+        <v>59.46</v>
       </c>
       <c r="G2" s="8">
-        <v>63.1</v>
+        <v>63.09</v>
       </c>
       <c r="H2" s="9">
-        <v>67.3</v>
+        <v>67.260000000000005</v>
       </c>
       <c r="I2" s="10">
-        <v>74.599999999999994</v>
+        <v>74.569999999999993</v>
       </c>
       <c r="J2" s="11">
-        <v>69</v>
+        <v>68.97</v>
       </c>
       <c r="K2" s="12">
-        <v>72.5</v>
+        <v>72.47</v>
       </c>
       <c r="L2" s="13">
-        <v>77</v>
+        <v>77.03</v>
       </c>
       <c r="M2" s="14">
-        <v>82.7</v>
+        <v>82.67</v>
       </c>
       <c r="N2" s="15">
-        <v>83.2</v>
+        <v>83.16</v>
       </c>
       <c r="O2" s="16">
-        <v>91.1</v>
+        <v>91.14</v>
       </c>
       <c r="P2" s="17">
-        <v>96.8</v>
+        <v>96.77</v>
       </c>
       <c r="Q2" s="18">
-        <v>97.2</v>
+        <v>97.16</v>
       </c>
       <c r="R2" s="19">
-        <v>102.5</v>
+        <v>102.53</v>
       </c>
       <c r="S2" s="20">
         <v>134.19999999999999</v>
       </c>
       <c r="T2" s="21">
-        <v>138.6</v>
+        <v>138.61000000000001</v>
       </c>
       <c r="U2" s="22">
-        <v>158.9</v>
+        <v>158.93</v>
       </c>
       <c r="V2" s="23">
-        <v>167</v>
+        <v>167.04</v>
       </c>
       <c r="W2" s="24">
-        <v>169.2</v>
+        <v>169.19</v>
       </c>
       <c r="X2" s="25">
-        <v>177.8</v>
+        <v>177.81</v>
       </c>
       <c r="Y2" s="26">
-        <v>180.7</v>
+        <v>180.72</v>
       </c>
       <c r="Z2" s="27">
-        <v>182.5</v>
+        <v>182.53</v>
       </c>
       <c r="AA2" s="28">
-        <v>200.8</v>
+        <v>200.77</v>
       </c>
       <c r="AB2" s="29">
-        <v>204.2</v>
+        <v>204.18</v>
       </c>
       <c r="AC2" s="30">
-        <v>213</v>
+        <v>212.97</v>
       </c>
       <c r="AD2" s="31">
-        <v>222.2</v>
+        <v>222.17</v>
       </c>
       <c r="AE2" s="32">
-        <v>241.5</v>
+        <v>241.51</v>
       </c>
       <c r="AF2" s="33">
-        <v>264.39999999999998</v>
+        <v>264.41000000000003</v>
       </c>
       <c r="AG2" s="34">
-        <v>262.2</v>
+        <v>262.22000000000003</v>
       </c>
       <c r="AH2" s="35">
-        <v>276.2</v>
+        <v>276.17</v>
       </c>
       <c r="AI2" s="36">
-        <v>292.7</v>
+        <v>292.74</v>
       </c>
       <c r="AJ2" s="37">
-        <v>338.4</v>
+        <v>338.36</v>
       </c>
       <c r="AK2" s="38">
-        <v>345.5</v>
+        <v>345.53</v>
       </c>
       <c r="AL2" s="39">
-        <v>349.4</v>
+        <v>349.35</v>
       </c>
       <c r="AM2" s="40">
-        <v>359.2</v>
+        <v>359.22</v>
       </c>
       <c r="AN2" s="41">
-        <v>394.8</v>
+        <v>394.83</v>
       </c>
       <c r="AO2" s="42">
-        <v>422</v>
+        <v>421.98</v>
       </c>
       <c r="AP2" s="43">
-        <v>435.9</v>
+        <v>435.88</v>
       </c>
       <c r="AQ2" s="44">
-        <v>454</v>
+        <v>453.95</v>
       </c>
       <c r="AR2" s="45">
-        <v>505.4</v>
+        <v>505.42</v>
       </c>
       <c r="AS2" s="46">
         <v>521.9</v>
@@ -4377,124 +4377,124 @@
         <v>256</v>
       </c>
       <c r="E3" s="259">
-        <v>49.3</v>
+        <v>49.25</v>
       </c>
       <c r="F3" s="260">
-        <v>51.1</v>
+        <v>51.09</v>
       </c>
       <c r="G3" s="261">
         <v>54.2</v>
       </c>
       <c r="H3" s="262">
-        <v>58.2</v>
+        <v>58.18</v>
       </c>
       <c r="I3" s="263">
-        <v>64.900000000000006</v>
+        <v>64.91</v>
       </c>
       <c r="J3" s="264">
-        <v>58.9</v>
+        <v>58.92</v>
       </c>
       <c r="K3" s="265">
-        <v>62.4</v>
+        <v>62.41</v>
       </c>
       <c r="L3" s="266">
-        <v>66.8</v>
+        <v>66.75</v>
       </c>
       <c r="M3" s="267">
-        <v>72.3</v>
+        <v>72.34</v>
       </c>
       <c r="N3" s="268">
-        <v>69.7</v>
+        <v>69.72</v>
       </c>
       <c r="O3" s="269">
-        <v>76.900000000000006</v>
+        <v>76.89</v>
       </c>
       <c r="P3" s="270">
-        <v>85.2</v>
+        <v>85.15</v>
       </c>
       <c r="Q3" s="271">
         <v>84.9</v>
       </c>
       <c r="R3" s="272">
-        <v>89.8</v>
+        <v>89.79</v>
       </c>
       <c r="S3" s="273">
-        <v>119</v>
+        <v>119.01</v>
       </c>
       <c r="T3" s="274">
-        <v>124.2</v>
+        <v>124.17</v>
       </c>
       <c r="U3" s="275">
         <v>144.1</v>
       </c>
       <c r="V3" s="276">
-        <v>152.4</v>
+        <v>152.36000000000001</v>
       </c>
       <c r="W3" s="277">
-        <v>154</v>
+        <v>153.96</v>
       </c>
       <c r="X3" s="278">
-        <v>161.80000000000001</v>
+        <v>161.84</v>
       </c>
       <c r="Y3" s="279">
-        <v>164.1</v>
+        <v>164.11</v>
       </c>
       <c r="Z3" s="280">
-        <v>163.1</v>
+        <v>163.09</v>
       </c>
       <c r="AA3" s="281">
-        <v>180.1</v>
+        <v>180.11</v>
       </c>
       <c r="AB3" s="282">
-        <v>186.5</v>
+        <v>186.48</v>
       </c>
       <c r="AC3" s="283">
-        <v>189.1</v>
+        <v>189.12</v>
       </c>
       <c r="AD3" s="284">
-        <v>196.8</v>
+        <v>196.83</v>
       </c>
       <c r="AE3" s="285">
-        <v>214.9</v>
+        <v>214.87</v>
       </c>
       <c r="AF3" s="286">
-        <v>237.1</v>
+        <v>237.08</v>
       </c>
       <c r="AG3" s="287">
-        <v>233.2</v>
+        <v>233.15</v>
       </c>
       <c r="AH3" s="288">
-        <v>242.9</v>
+        <v>242.93</v>
       </c>
       <c r="AI3" s="289">
-        <v>258.3</v>
+        <v>258.29000000000002</v>
       </c>
       <c r="AJ3" s="290">
-        <v>305.39999999999998</v>
+        <v>305.43</v>
       </c>
       <c r="AK3" s="291">
-        <v>306.5</v>
+        <v>306.51</v>
       </c>
       <c r="AL3" s="292">
-        <v>308</v>
+        <v>307.97000000000003</v>
       </c>
       <c r="AM3" s="293">
-        <v>314.89999999999998</v>
+        <v>314.92</v>
       </c>
       <c r="AN3" s="294">
-        <v>347.7</v>
+        <v>347.66</v>
       </c>
       <c r="AO3" s="295">
-        <v>373.1</v>
+        <v>373.08</v>
       </c>
       <c r="AP3" s="296">
-        <v>384.9</v>
+        <v>384.93</v>
       </c>
       <c r="AQ3" s="297">
-        <v>396.2</v>
+        <v>396.19</v>
       </c>
       <c r="AR3" s="298">
-        <v>443.6</v>
+        <v>443.58</v>
       </c>
       <c r="AS3" s="299">
         <v>461.8</v>
@@ -5125,13 +5125,13 @@
       </c>
     </row>
     <row r="4" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -6487,137 +6487,137 @@
       </c>
     </row>
     <row r="6" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>256</v>
       </c>
       <c r="E6" s="6">
-        <v>9.1999999999999993</v>
+        <v>9.23</v>
       </c>
       <c r="F6" s="7">
-        <v>8.4</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="G6" s="8">
-        <v>8.9</v>
+        <v>8.89</v>
       </c>
       <c r="H6" s="9">
-        <v>9.1</v>
+        <v>9.09</v>
       </c>
       <c r="I6" s="10">
-        <v>9.6999999999999993</v>
+        <v>9.66</v>
       </c>
       <c r="J6" s="11">
-        <v>10.1</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="K6" s="12">
-        <v>10.1</v>
+        <v>10.06</v>
       </c>
       <c r="L6" s="13">
-        <v>10.3</v>
+        <v>10.28</v>
       </c>
       <c r="M6" s="14">
-        <v>10.3</v>
+        <v>10.33</v>
       </c>
       <c r="N6" s="15">
-        <v>13.4</v>
+        <v>13.44</v>
       </c>
       <c r="O6" s="16">
-        <v>14.2</v>
+        <v>14.24</v>
       </c>
       <c r="P6" s="17">
-        <v>11.6</v>
+        <v>11.62</v>
       </c>
       <c r="Q6" s="18">
-        <v>12.3</v>
+        <v>12.27</v>
       </c>
       <c r="R6" s="19">
-        <v>12.7</v>
+        <v>12.74</v>
       </c>
       <c r="S6" s="20">
-        <v>15.2</v>
+        <v>15.19</v>
       </c>
       <c r="T6" s="21">
-        <v>14.4</v>
+        <v>14.44</v>
       </c>
       <c r="U6" s="22">
-        <v>14.8</v>
+        <v>14.83</v>
       </c>
       <c r="V6" s="23">
-        <v>14.7</v>
+        <v>14.68</v>
       </c>
       <c r="W6" s="24">
-        <v>15.2</v>
+        <v>15.24</v>
       </c>
       <c r="X6" s="25">
-        <v>16</v>
+        <v>15.97</v>
       </c>
       <c r="Y6" s="26">
-        <v>16.600000000000001</v>
+        <v>16.61</v>
       </c>
       <c r="Z6" s="27">
-        <v>19.5</v>
+        <v>19.45</v>
       </c>
       <c r="AA6" s="28">
-        <v>20.7</v>
+        <v>20.66</v>
       </c>
       <c r="AB6" s="29">
         <v>17.7</v>
       </c>
       <c r="AC6" s="30">
-        <v>23.9</v>
+        <v>23.85</v>
       </c>
       <c r="AD6" s="31">
-        <v>25.4</v>
+        <v>25.35</v>
       </c>
       <c r="AE6" s="32">
-        <v>26.6</v>
+        <v>26.64</v>
       </c>
       <c r="AF6" s="33">
-        <v>27.3</v>
+        <v>27.33</v>
       </c>
       <c r="AG6" s="34">
-        <v>29.1</v>
+        <v>29.07</v>
       </c>
       <c r="AH6" s="35">
-        <v>33.200000000000003</v>
+        <v>33.24</v>
       </c>
       <c r="AI6" s="36">
-        <v>34.5</v>
+        <v>34.450000000000003</v>
       </c>
       <c r="AJ6" s="37">
-        <v>32.9</v>
+        <v>32.93</v>
       </c>
       <c r="AK6" s="38">
-        <v>39</v>
+        <v>39.020000000000003</v>
       </c>
       <c r="AL6" s="39">
-        <v>41.4</v>
+        <v>41.38</v>
       </c>
       <c r="AM6" s="40">
         <v>44.3</v>
       </c>
       <c r="AN6" s="41">
-        <v>47.2</v>
+        <v>47.17</v>
       </c>
       <c r="AO6" s="42">
-        <v>48.9</v>
+        <v>48.91</v>
       </c>
       <c r="AP6" s="43">
-        <v>50.9</v>
+        <v>50.94</v>
       </c>
       <c r="AQ6" s="44">
-        <v>57.8</v>
+        <v>57.76</v>
       </c>
       <c r="AR6" s="45">
-        <v>61.8</v>
+        <v>61.84</v>
       </c>
       <c r="AS6" s="46">
         <v>60.1</v>
@@ -7261,40 +7261,40 @@
         <v>256</v>
       </c>
       <c r="E7" s="259">
-        <v>5</v>
+        <v>4.95</v>
       </c>
       <c r="F7" s="260">
-        <v>7.9</v>
+        <v>7.87</v>
       </c>
       <c r="G7" s="261">
-        <v>7.6</v>
+        <v>7.57</v>
       </c>
       <c r="H7" s="262">
-        <v>5.9</v>
+        <v>5.89</v>
       </c>
       <c r="I7" s="263">
-        <v>6.5</v>
+        <v>6.54</v>
       </c>
       <c r="J7" s="264">
-        <v>14.7</v>
+        <v>14.67</v>
       </c>
       <c r="K7" s="265">
-        <v>8.1</v>
+        <v>8.07</v>
       </c>
       <c r="L7" s="266">
-        <v>9</v>
+        <v>9.02</v>
       </c>
       <c r="M7" s="267">
-        <v>12</v>
+        <v>11.99</v>
       </c>
       <c r="N7" s="268">
-        <v>13.6</v>
+        <v>13.58</v>
       </c>
       <c r="O7" s="269">
-        <v>8.9</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="P7" s="270">
-        <v>17</v>
+        <v>17.04</v>
       </c>
       <c r="Q7" s="271">
         <v>34.200000000000003</v>
@@ -7303,82 +7303,82 @@
         <v>33</v>
       </c>
       <c r="S7" s="273">
-        <v>10.5</v>
+        <v>10.52</v>
       </c>
       <c r="T7" s="274">
         <v>19.7</v>
       </c>
       <c r="U7" s="275">
-        <v>10.8</v>
+        <v>10.84</v>
       </c>
       <c r="V7" s="276">
-        <v>20.3</v>
+        <v>20.25</v>
       </c>
       <c r="W7" s="277">
-        <v>34.799999999999997</v>
+        <v>34.770000000000003</v>
       </c>
       <c r="X7" s="278">
-        <v>48.2</v>
+        <v>48.15</v>
       </c>
       <c r="Y7" s="279">
-        <v>33</v>
+        <v>33.04</v>
       </c>
       <c r="Z7" s="280">
-        <v>35.700000000000003</v>
+        <v>35.67</v>
       </c>
       <c r="AA7" s="281">
-        <v>18.3</v>
+        <v>18.309999999999999</v>
       </c>
       <c r="AB7" s="282">
-        <v>35.700000000000003</v>
+        <v>35.71</v>
       </c>
       <c r="AC7" s="283">
-        <v>47.6</v>
+        <v>47.57</v>
       </c>
       <c r="AD7" s="284">
-        <v>67.599999999999994</v>
+        <v>67.569999999999993</v>
       </c>
       <c r="AE7" s="285">
-        <v>58.4</v>
+        <v>58.44</v>
       </c>
       <c r="AF7" s="286">
-        <v>57.7</v>
+        <v>57.72</v>
       </c>
       <c r="AG7" s="287">
-        <v>65.3</v>
+        <v>65.28</v>
       </c>
       <c r="AH7" s="288">
-        <v>70.099999999999994</v>
+        <v>70.069999999999993</v>
       </c>
       <c r="AI7" s="289">
-        <v>97.2</v>
+        <v>97.19</v>
       </c>
       <c r="AJ7" s="290">
         <v>59.1</v>
       </c>
       <c r="AK7" s="291">
-        <v>107</v>
+        <v>106.96</v>
       </c>
       <c r="AL7" s="292">
-        <v>120.3</v>
+        <v>120.33</v>
       </c>
       <c r="AM7" s="293">
-        <v>126.4</v>
+        <v>126.35</v>
       </c>
       <c r="AN7" s="294">
         <v>105.1</v>
       </c>
       <c r="AO7" s="295">
-        <v>112.2</v>
+        <v>112.17</v>
       </c>
       <c r="AP7" s="296">
-        <v>153.9</v>
+        <v>153.88999999999999</v>
       </c>
       <c r="AQ7" s="297">
-        <v>202.5</v>
+        <v>202.46</v>
       </c>
       <c r="AR7" s="298">
-        <v>193.8</v>
+        <v>193.82</v>
       </c>
       <c r="AS7" s="299">
         <v>191.8</v>
@@ -8009,83 +8009,83 @@
       </c>
     </row>
     <row r="8" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>256</v>
       </c>
       <c r="E8" s="6">
-        <v>6.8</v>
+        <v>6.79</v>
       </c>
       <c r="F8" s="7">
-        <v>7.7</v>
+        <v>7.69</v>
       </c>
       <c r="G8" s="8">
-        <v>6.9</v>
+        <v>6.94</v>
       </c>
       <c r="H8" s="9">
-        <v>6.7</v>
+        <v>6.68</v>
       </c>
       <c r="I8" s="10">
-        <v>8.1999999999999993</v>
+        <v>8.15</v>
       </c>
       <c r="J8" s="11">
-        <v>8.8000000000000007</v>
+        <v>8.77</v>
       </c>
       <c r="K8" s="12">
-        <v>8.6</v>
+        <v>8.59</v>
       </c>
       <c r="L8" s="13">
-        <v>9.9</v>
+        <v>9.92</v>
       </c>
       <c r="M8" s="14">
-        <v>10.199999999999999</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="N8" s="15">
-        <v>11.2</v>
+        <v>11.24</v>
       </c>
       <c r="O8" s="16">
-        <v>14.1</v>
+        <v>14.06</v>
       </c>
       <c r="P8" s="17">
-        <v>15.1</v>
+        <v>15.11</v>
       </c>
       <c r="Q8" s="18">
-        <v>16.8</v>
+        <v>16.77</v>
       </c>
       <c r="R8" s="19">
         <v>16.399999999999999</v>
       </c>
       <c r="S8" s="20">
-        <v>18</v>
+        <v>17.98</v>
       </c>
       <c r="T8" s="21">
-        <v>19.100000000000001</v>
+        <v>19.059999999999999</v>
       </c>
       <c r="U8" s="22">
-        <v>21.6</v>
+        <v>21.58</v>
       </c>
       <c r="V8" s="23">
         <v>21.8</v>
       </c>
       <c r="W8" s="24">
-        <v>20.2</v>
+        <v>20.18</v>
       </c>
       <c r="X8" s="25">
-        <v>22.1</v>
+        <v>22.06</v>
       </c>
       <c r="Y8" s="26">
-        <v>28.1</v>
+        <v>28.09</v>
       </c>
       <c r="Z8" s="27">
-        <v>30</v>
+        <v>29.96</v>
       </c>
       <c r="AA8" s="28">
         <v>33.299999999999997</v>
@@ -8094,52 +8094,52 @@
         <v>35.4</v>
       </c>
       <c r="AC8" s="30">
-        <v>41.9</v>
+        <v>41.94</v>
       </c>
       <c r="AD8" s="31">
-        <v>57.8</v>
+        <v>57.82</v>
       </c>
       <c r="AE8" s="32">
-        <v>55.9</v>
+        <v>55.87</v>
       </c>
       <c r="AF8" s="33">
-        <v>61.6</v>
+        <v>61.61</v>
       </c>
       <c r="AG8" s="34">
         <v>61.5</v>
       </c>
       <c r="AH8" s="35">
-        <v>67.599999999999994</v>
+        <v>67.62</v>
       </c>
       <c r="AI8" s="36">
-        <v>75.7</v>
+        <v>75.72</v>
       </c>
       <c r="AJ8" s="37">
         <v>85.5</v>
       </c>
       <c r="AK8" s="38">
-        <v>91.7</v>
+        <v>91.74</v>
       </c>
       <c r="AL8" s="39">
-        <v>109.2</v>
+        <v>109.16</v>
       </c>
       <c r="AM8" s="40">
-        <v>113.5</v>
+        <v>113.54</v>
       </c>
       <c r="AN8" s="41">
-        <v>126.6</v>
+        <v>126.58</v>
       </c>
       <c r="AO8" s="42">
-        <v>124.8</v>
+        <v>124.83</v>
       </c>
       <c r="AP8" s="43">
-        <v>152.69999999999999</v>
+        <v>152.74</v>
       </c>
       <c r="AQ8" s="44">
         <v>169.5</v>
       </c>
       <c r="AR8" s="45">
-        <v>141.69999999999999</v>
+        <v>141.69</v>
       </c>
       <c r="AS8" s="46">
         <v>170.7</v>
@@ -8783,124 +8783,124 @@
         <v>256</v>
       </c>
       <c r="E9" s="259">
-        <v>4.9000000000000004</v>
+        <v>4.88</v>
       </c>
       <c r="F9" s="260">
-        <v>5.4</v>
+        <v>5.35</v>
       </c>
       <c r="G9" s="261">
-        <v>4.8</v>
+        <v>4.82</v>
       </c>
       <c r="H9" s="262">
-        <v>4.5</v>
+        <v>4.47</v>
       </c>
       <c r="I9" s="263">
-        <v>5.3</v>
+        <v>5.26</v>
       </c>
       <c r="J9" s="264">
-        <v>5.8</v>
+        <v>5.78</v>
       </c>
       <c r="K9" s="265">
-        <v>5.6</v>
+        <v>5.64</v>
       </c>
       <c r="L9" s="266">
-        <v>6.8</v>
+        <v>6.75</v>
       </c>
       <c r="M9" s="267">
-        <v>7.1</v>
+        <v>7.09</v>
       </c>
       <c r="N9" s="268">
         <v>7.5</v>
       </c>
       <c r="O9" s="269">
-        <v>9.1999999999999993</v>
+        <v>9.19</v>
       </c>
       <c r="P9" s="270">
-        <v>9.6999999999999993</v>
+        <v>9.66</v>
       </c>
       <c r="Q9" s="271">
-        <v>11</v>
+        <v>11.01</v>
       </c>
       <c r="R9" s="272">
-        <v>10.5</v>
+        <v>10.49</v>
       </c>
       <c r="S9" s="273">
-        <v>10.9</v>
+        <v>10.87</v>
       </c>
       <c r="T9" s="274">
-        <v>12.1</v>
+        <v>12.07</v>
       </c>
       <c r="U9" s="275">
-        <v>12.9</v>
+        <v>12.92</v>
       </c>
       <c r="V9" s="276">
-        <v>15.2</v>
+        <v>15.24</v>
       </c>
       <c r="W9" s="277">
-        <v>13.9</v>
+        <v>13.94</v>
       </c>
       <c r="X9" s="278">
-        <v>15.9</v>
+        <v>15.88</v>
       </c>
       <c r="Y9" s="279">
-        <v>19.7</v>
+        <v>19.73</v>
       </c>
       <c r="Z9" s="280">
-        <v>21.4</v>
+        <v>21.39</v>
       </c>
       <c r="AA9" s="281">
         <v>23.6</v>
       </c>
       <c r="AB9" s="282">
-        <v>22.9</v>
+        <v>22.94</v>
       </c>
       <c r="AC9" s="283">
-        <v>25.9</v>
+        <v>25.89</v>
       </c>
       <c r="AD9" s="284">
         <v>38</v>
       </c>
       <c r="AE9" s="285">
-        <v>31</v>
+        <v>31.03</v>
       </c>
       <c r="AF9" s="286">
-        <v>31</v>
+        <v>30.98</v>
       </c>
       <c r="AG9" s="287">
         <v>33.1</v>
       </c>
       <c r="AH9" s="288">
-        <v>39.5</v>
+        <v>39.54</v>
       </c>
       <c r="AI9" s="289">
-        <v>44.5</v>
+        <v>44.54</v>
       </c>
       <c r="AJ9" s="290">
         <v>50.1</v>
       </c>
       <c r="AK9" s="291">
-        <v>55.8</v>
+        <v>55.82</v>
       </c>
       <c r="AL9" s="292">
-        <v>66.5</v>
+        <v>66.48</v>
       </c>
       <c r="AM9" s="293">
         <v>66</v>
       </c>
       <c r="AN9" s="294">
-        <v>77.5</v>
+        <v>77.47</v>
       </c>
       <c r="AO9" s="295">
-        <v>75.400000000000006</v>
+        <v>75.39</v>
       </c>
       <c r="AP9" s="296">
-        <v>94.6</v>
+        <v>94.57</v>
       </c>
       <c r="AQ9" s="297">
-        <v>112.4</v>
+        <v>112.35</v>
       </c>
       <c r="AR9" s="298">
-        <v>89.8</v>
+        <v>89.75</v>
       </c>
       <c r="AS9" s="299">
         <v>113.5</v>
@@ -9531,137 +9531,137 @@
       </c>
     </row>
     <row r="10" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>256</v>
       </c>
       <c r="E10" s="6">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="F10" s="7">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="G10" s="8">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="H10" s="9">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="I10" s="10">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J10" s="11">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="K10" s="12">
-        <v>2.7</v>
+        <v>2.69</v>
       </c>
       <c r="L10" s="13">
-        <v>2.9</v>
+        <v>2.91</v>
       </c>
       <c r="M10" s="14">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="N10" s="15">
-        <v>3.4</v>
+        <v>3.39</v>
       </c>
       <c r="O10" s="16">
         <v>4.5</v>
       </c>
       <c r="P10" s="17">
-        <v>5.0999999999999996</v>
+        <v>5.05</v>
       </c>
       <c r="Q10" s="18">
-        <v>5.3</v>
+        <v>5.33</v>
       </c>
       <c r="R10" s="19">
-        <v>5.5</v>
+        <v>5.53</v>
       </c>
       <c r="S10" s="20">
         <v>6.7</v>
       </c>
       <c r="T10" s="21">
-        <v>6.4</v>
+        <v>6.43</v>
       </c>
       <c r="U10" s="22">
-        <v>8.1999999999999993</v>
+        <v>8.19</v>
       </c>
       <c r="V10" s="23">
-        <v>6</v>
+        <v>6.03</v>
       </c>
       <c r="W10" s="24">
-        <v>5.7</v>
+        <v>5.68</v>
       </c>
       <c r="X10" s="25">
-        <v>5.6</v>
+        <v>5.57</v>
       </c>
       <c r="Y10" s="26">
-        <v>7.7</v>
+        <v>7.67</v>
       </c>
       <c r="Z10" s="27">
-        <v>7.9</v>
+        <v>7.87</v>
       </c>
       <c r="AA10" s="28">
-        <v>8.9</v>
+        <v>8.94</v>
       </c>
       <c r="AB10" s="29">
-        <v>11.7</v>
+        <v>11.65</v>
       </c>
       <c r="AC10" s="30">
-        <v>15.2</v>
+        <v>15.15</v>
       </c>
       <c r="AD10" s="31">
-        <v>18.8</v>
+        <v>18.77</v>
       </c>
       <c r="AE10" s="32">
-        <v>23.8</v>
+        <v>23.75</v>
       </c>
       <c r="AF10" s="33">
-        <v>29.5</v>
+        <v>29.45</v>
       </c>
       <c r="AG10" s="34">
         <v>26.7</v>
       </c>
       <c r="AH10" s="35">
-        <v>26.1</v>
+        <v>26.13</v>
       </c>
       <c r="AI10" s="36">
         <v>29.1</v>
       </c>
       <c r="AJ10" s="37">
-        <v>33.299999999999997</v>
+        <v>33.32</v>
       </c>
       <c r="AK10" s="38">
-        <v>33.6</v>
+        <v>33.56</v>
       </c>
       <c r="AL10" s="39">
-        <v>40.1</v>
+        <v>40.130000000000003</v>
       </c>
       <c r="AM10" s="40">
-        <v>44.9</v>
+        <v>44.94</v>
       </c>
       <c r="AN10" s="41">
-        <v>46.3</v>
+        <v>46.28</v>
       </c>
       <c r="AO10" s="42">
         <v>46.3</v>
       </c>
       <c r="AP10" s="43">
-        <v>54.6</v>
+        <v>54.64</v>
       </c>
       <c r="AQ10" s="44">
-        <v>53.7</v>
+        <v>53.72</v>
       </c>
       <c r="AR10" s="45">
-        <v>48</v>
+        <v>47.97</v>
       </c>
       <c r="AS10" s="46">
         <v>53.1</v>
@@ -10308,121 +10308,121 @@
         <v>0.2</v>
       </c>
       <c r="F11" s="260">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="G11" s="261">
         <v>0.2</v>
       </c>
       <c r="H11" s="262">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="I11" s="263">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="J11" s="264">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="K11" s="265">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="L11" s="266">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="M11" s="267">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="N11" s="268">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="O11" s="269">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="P11" s="270">
         <v>0.4</v>
       </c>
       <c r="Q11" s="271">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="R11" s="272">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="S11" s="273">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="T11" s="274">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="U11" s="275">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="V11" s="276">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="W11" s="277">
-        <v>0.6</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="X11" s="278">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="Y11" s="279">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="Z11" s="280">
         <v>0.7</v>
       </c>
       <c r="AA11" s="281">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AB11" s="282">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AC11" s="283">
         <v>0.9</v>
       </c>
       <c r="AD11" s="284">
-        <v>1.1000000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AE11" s="285">
         <v>1.1000000000000001</v>
       </c>
       <c r="AF11" s="286">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AG11" s="287">
         <v>1.7</v>
       </c>
       <c r="AH11" s="288">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AI11" s="289">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="AJ11" s="290">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="AK11" s="291">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="AL11" s="292">
-        <v>2.6</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="AM11" s="293">
         <v>2.6</v>
       </c>
       <c r="AN11" s="294">
-        <v>2.8</v>
+        <v>2.83</v>
       </c>
       <c r="AO11" s="295">
-        <v>3.1</v>
+        <v>3.14</v>
       </c>
       <c r="AP11" s="296">
-        <v>3.5</v>
+        <v>3.53</v>
       </c>
       <c r="AQ11" s="297">
-        <v>3.4</v>
+        <v>3.44</v>
       </c>
       <c r="AR11" s="298">
-        <v>4</v>
+        <v>3.97</v>
       </c>
       <c r="AS11" s="299">
         <v>4</v>
@@ -11053,137 +11053,137 @@
       </c>
     </row>
     <row r="12" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>256</v>
       </c>
       <c r="E12" s="6">
-        <v>-1.8</v>
+        <v>-1.84</v>
       </c>
       <c r="F12" s="7">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="G12" s="8">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="H12" s="9">
-        <v>-0.8</v>
+        <v>-0.79</v>
       </c>
       <c r="I12" s="10">
-        <v>-1.6</v>
+        <v>-1.61</v>
       </c>
       <c r="J12" s="11">
         <v>5.9</v>
       </c>
       <c r="K12" s="12">
-        <v>-0.5</v>
+        <v>-0.52</v>
       </c>
       <c r="L12" s="13">
         <v>-0.9</v>
       </c>
       <c r="M12" s="14">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="N12" s="15">
-        <v>2.2999999999999998</v>
+        <v>2.34</v>
       </c>
       <c r="O12" s="16">
-        <v>-5.2</v>
+        <v>-5.17</v>
       </c>
       <c r="P12" s="17">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="Q12" s="18">
-        <v>17.399999999999999</v>
+        <v>17.43</v>
       </c>
       <c r="R12" s="19">
         <v>16.600000000000001</v>
       </c>
       <c r="S12" s="20">
-        <v>-7.5</v>
+        <v>-7.46</v>
       </c>
       <c r="T12" s="21">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="U12" s="22">
-        <v>-10.7</v>
+        <v>-10.74</v>
       </c>
       <c r="V12" s="23">
-        <v>-1.6</v>
+        <v>-1.56</v>
       </c>
       <c r="W12" s="24">
-        <v>14.6</v>
+        <v>14.59</v>
       </c>
       <c r="X12" s="25">
-        <v>26.1</v>
+        <v>26.09</v>
       </c>
       <c r="Y12" s="26">
-        <v>5</v>
+        <v>4.96</v>
       </c>
       <c r="Z12" s="27">
-        <v>5.7</v>
+        <v>5.71</v>
       </c>
       <c r="AA12" s="28">
-        <v>-15</v>
+        <v>-14.99</v>
       </c>
       <c r="AB12" s="29">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="AC12" s="30">
-        <v>5.6</v>
+        <v>5.63</v>
       </c>
       <c r="AD12" s="31">
-        <v>9.8000000000000007</v>
+        <v>9.76</v>
       </c>
       <c r="AE12" s="32">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="AF12" s="33">
-        <v>-3.9</v>
+        <v>-3.89</v>
       </c>
       <c r="AG12" s="34">
-        <v>3.8</v>
+        <v>3.78</v>
       </c>
       <c r="AH12" s="35">
-        <v>2.5</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="AI12" s="36">
-        <v>21.5</v>
+        <v>21.47</v>
       </c>
       <c r="AJ12" s="37">
         <v>-26.4</v>
       </c>
       <c r="AK12" s="38">
-        <v>15.2</v>
+        <v>15.22</v>
       </c>
       <c r="AL12" s="39">
-        <v>11.2</v>
+        <v>11.16</v>
       </c>
       <c r="AM12" s="40">
-        <v>12.8</v>
+        <v>12.81</v>
       </c>
       <c r="AN12" s="41">
-        <v>-21.5</v>
+        <v>-21.48</v>
       </c>
       <c r="AO12" s="42">
-        <v>-12.7</v>
+        <v>-12.66</v>
       </c>
       <c r="AP12" s="43">
-        <v>1.2</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AQ12" s="44">
-        <v>33</v>
+        <v>32.96</v>
       </c>
       <c r="AR12" s="45">
-        <v>52.1</v>
+        <v>52.13</v>
       </c>
       <c r="AS12" s="46">
         <v>21.1</v>
@@ -11827,97 +11827,97 @@
         <v>256</v>
       </c>
       <c r="E13" s="259">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="F13" s="260">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="G13" s="261">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="H13" s="262">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="I13" s="263">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="J13" s="264">
-        <v>3</v>
+        <v>2.99</v>
       </c>
       <c r="K13" s="265">
-        <v>3.5</v>
+        <v>3.46</v>
       </c>
       <c r="L13" s="266">
-        <v>3.3</v>
+        <v>3.28</v>
       </c>
       <c r="M13" s="267">
-        <v>3.2</v>
+        <v>3.18</v>
       </c>
       <c r="N13" s="268">
-        <v>3.6</v>
+        <v>3.57</v>
       </c>
       <c r="O13" s="269">
-        <v>3.2</v>
+        <v>3.17</v>
       </c>
       <c r="P13" s="270">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="Q13" s="271">
-        <v>4.9000000000000004</v>
+        <v>4.88</v>
       </c>
       <c r="R13" s="272">
-        <v>4.8</v>
+        <v>4.76</v>
       </c>
       <c r="S13" s="273">
-        <v>6</v>
+        <v>5.98</v>
       </c>
       <c r="T13" s="274">
-        <v>4.8</v>
+        <v>4.84</v>
       </c>
       <c r="U13" s="275">
-        <v>6</v>
+        <v>5.97</v>
       </c>
       <c r="V13" s="276">
-        <v>9.4</v>
+        <v>9.41</v>
       </c>
       <c r="W13" s="277">
-        <v>10.3</v>
+        <v>10.31</v>
       </c>
       <c r="X13" s="278">
-        <v>11</v>
+        <v>11.01</v>
       </c>
       <c r="Y13" s="279">
-        <v>10.7</v>
+        <v>10.71</v>
       </c>
       <c r="Z13" s="280">
-        <v>13.6</v>
+        <v>13.58</v>
       </c>
       <c r="AA13" s="281">
-        <v>16.399999999999999</v>
+        <v>16.37</v>
       </c>
       <c r="AB13" s="282">
-        <v>18.600000000000001</v>
+        <v>18.61</v>
       </c>
       <c r="AC13" s="283">
-        <v>20.5</v>
+        <v>20.51</v>
       </c>
       <c r="AD13" s="284">
-        <v>21.3</v>
+        <v>21.32</v>
       </c>
       <c r="AE13" s="285">
-        <v>23.1</v>
+        <v>23.07</v>
       </c>
       <c r="AF13" s="286">
         <v>25.1</v>
       </c>
       <c r="AG13" s="287">
-        <v>26.1</v>
+        <v>26.13</v>
       </c>
       <c r="AH13" s="288">
         <v>28.5</v>
       </c>
       <c r="AI13" s="289">
-        <v>29.1</v>
+        <v>29.08</v>
       </c>
       <c r="AJ13" s="290">
         <v>36</v>
@@ -11926,25 +11926,25 @@
         <v>36.799999999999997</v>
       </c>
       <c r="AL13" s="292">
-        <v>41.8</v>
+        <v>41.84</v>
       </c>
       <c r="AM13" s="293">
-        <v>41.3</v>
+        <v>41.25</v>
       </c>
       <c r="AN13" s="294">
         <v>51.8</v>
       </c>
       <c r="AO13" s="295">
-        <v>49.6</v>
+        <v>49.55</v>
       </c>
       <c r="AP13" s="296">
-        <v>55.7</v>
+        <v>55.69</v>
       </c>
       <c r="AQ13" s="297">
-        <v>63.5</v>
+        <v>63.45</v>
       </c>
       <c r="AR13" s="298">
-        <v>66.099999999999994</v>
+        <v>66.08</v>
       </c>
       <c r="AS13" s="299">
         <v>71.599999999999994</v>
@@ -12575,137 +12575,137 @@
       </c>
     </row>
     <row r="14" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>256</v>
       </c>
       <c r="E14" s="6">
-        <v>0.6</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F14" s="7">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="G14" s="8">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="H14" s="9">
-        <v>1.1000000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="I14" s="10">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="J14" s="11">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="K14" s="12">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="L14" s="13">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="M14" s="14">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="N14" s="15">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="O14" s="16">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="P14" s="17">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q14" s="18">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="R14" s="19">
-        <v>3.5</v>
+        <v>3.48</v>
       </c>
       <c r="S14" s="20">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="T14" s="21">
-        <v>3.6</v>
+        <v>3.62</v>
       </c>
       <c r="U14" s="22">
-        <v>4.0999999999999996</v>
+        <v>4.09</v>
       </c>
       <c r="V14" s="23">
-        <v>6.9</v>
+        <v>6.94</v>
       </c>
       <c r="W14" s="24">
-        <v>7.6</v>
+        <v>7.57</v>
       </c>
       <c r="X14" s="25">
-        <v>8.5</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="Y14" s="26">
         <v>7.6</v>
       </c>
       <c r="Z14" s="27">
-        <v>10.199999999999999</v>
+        <v>10.17</v>
       </c>
       <c r="AA14" s="28">
-        <v>12.3</v>
+        <v>12.33</v>
       </c>
       <c r="AB14" s="29">
-        <v>13.8</v>
+        <v>13.77</v>
       </c>
       <c r="AC14" s="30">
-        <v>15</v>
+        <v>15.04</v>
       </c>
       <c r="AD14" s="31">
-        <v>15.5</v>
+        <v>15.54</v>
       </c>
       <c r="AE14" s="32">
-        <v>15.5</v>
+        <v>15.48</v>
       </c>
       <c r="AF14" s="33">
-        <v>16.7</v>
+        <v>16.72</v>
       </c>
       <c r="AG14" s="34">
-        <v>18</v>
+        <v>18.010000000000002</v>
       </c>
       <c r="AH14" s="35">
-        <v>19.2</v>
+        <v>19.190000000000001</v>
       </c>
       <c r="AI14" s="36">
-        <v>19.3</v>
+        <v>19.32</v>
       </c>
       <c r="AJ14" s="37">
-        <v>25.2</v>
+        <v>25.23</v>
       </c>
       <c r="AK14" s="38">
-        <v>24.2</v>
+        <v>24.21</v>
       </c>
       <c r="AL14" s="39">
-        <v>28.8</v>
+        <v>28.81</v>
       </c>
       <c r="AM14" s="40">
-        <v>29.5</v>
+        <v>29.52</v>
       </c>
       <c r="AN14" s="41">
         <v>36</v>
       </c>
       <c r="AO14" s="42">
-        <v>32.799999999999997</v>
+        <v>32.76</v>
       </c>
       <c r="AP14" s="43">
-        <v>38.200000000000003</v>
+        <v>38.229999999999997</v>
       </c>
       <c r="AQ14" s="44">
-        <v>44.6</v>
+        <v>44.62</v>
       </c>
       <c r="AR14" s="45">
-        <v>49</v>
+        <v>48.99</v>
       </c>
       <c r="AS14" s="46">
         <v>54</v>
@@ -13349,118 +13349,118 @@
         <v>256</v>
       </c>
       <c r="E15" s="259">
-        <v>8.1</v>
+        <v>8.06</v>
       </c>
       <c r="F15" s="260">
-        <v>7.2</v>
+        <v>7.19</v>
       </c>
       <c r="G15" s="261">
-        <v>7</v>
+        <v>6.97</v>
       </c>
       <c r="H15" s="262">
-        <v>7.7</v>
+        <v>7.71</v>
       </c>
       <c r="I15" s="263">
-        <v>10.5</v>
+        <v>10.48</v>
       </c>
       <c r="J15" s="264">
-        <v>11.9</v>
+        <v>11.85</v>
       </c>
       <c r="K15" s="265">
-        <v>9.1</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="L15" s="266">
-        <v>10.7</v>
+        <v>10.68</v>
       </c>
       <c r="M15" s="267">
-        <v>12.6</v>
+        <v>12.61</v>
       </c>
       <c r="N15" s="268">
-        <v>12</v>
+        <v>12.04</v>
       </c>
       <c r="O15" s="269">
         <v>15.3</v>
       </c>
       <c r="P15" s="270">
-        <v>17.100000000000001</v>
+        <v>17.11</v>
       </c>
       <c r="Q15" s="271">
         <v>18.8</v>
       </c>
       <c r="R15" s="272">
-        <v>19.3</v>
+        <v>19.27</v>
       </c>
       <c r="S15" s="273">
         <v>20</v>
       </c>
       <c r="T15" s="274">
-        <v>17.899999999999999</v>
+        <v>17.920000000000002</v>
       </c>
       <c r="U15" s="275">
-        <v>19.2</v>
+        <v>19.16</v>
       </c>
       <c r="V15" s="276">
-        <v>20.9</v>
+        <v>20.92</v>
       </c>
       <c r="W15" s="277">
-        <v>24.1</v>
+        <v>24.09</v>
       </c>
       <c r="X15" s="278">
         <v>27.4</v>
       </c>
       <c r="Y15" s="279">
-        <v>25.1</v>
+        <v>25.11</v>
       </c>
       <c r="Z15" s="280">
-        <v>27.3</v>
+        <v>27.25</v>
       </c>
       <c r="AA15" s="281">
-        <v>29.8</v>
+        <v>29.84</v>
       </c>
       <c r="AB15" s="282">
-        <v>37</v>
+        <v>36.950000000000003</v>
       </c>
       <c r="AC15" s="283">
-        <v>42.1</v>
+        <v>42.12</v>
       </c>
       <c r="AD15" s="284">
-        <v>43.9</v>
+        <v>43.92</v>
       </c>
       <c r="AE15" s="285">
-        <v>46.1</v>
+        <v>46.08</v>
       </c>
       <c r="AF15" s="286">
-        <v>62.1</v>
+        <v>62.09</v>
       </c>
       <c r="AG15" s="287">
-        <v>54.9</v>
+        <v>54.91</v>
       </c>
       <c r="AH15" s="288">
-        <v>49.2</v>
+        <v>49.19</v>
       </c>
       <c r="AI15" s="289">
-        <v>78.599999999999994</v>
+        <v>78.61</v>
       </c>
       <c r="AJ15" s="290">
         <v>75.8</v>
       </c>
       <c r="AK15" s="291">
-        <v>89.5</v>
+        <v>89.46</v>
       </c>
       <c r="AL15" s="292">
-        <v>89</v>
+        <v>88.96</v>
       </c>
       <c r="AM15" s="293">
-        <v>96.4</v>
+        <v>96.44</v>
       </c>
       <c r="AN15" s="294">
-        <v>108.3</v>
+        <v>108.33</v>
       </c>
       <c r="AO15" s="295">
         <v>108.1</v>
       </c>
       <c r="AP15" s="296">
-        <v>118.7</v>
+        <v>118.66</v>
       </c>
       <c r="AQ15" s="297">
         <v>128.80000000000001</v>
@@ -14097,134 +14097,134 @@
       </c>
     </row>
     <row r="16" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>256</v>
       </c>
       <c r="E16" s="6">
-        <v>6.6</v>
+        <v>6.64</v>
       </c>
       <c r="F16" s="7">
-        <v>6.8</v>
+        <v>6.76</v>
       </c>
       <c r="G16" s="8">
-        <v>6.2</v>
+        <v>6.17</v>
       </c>
       <c r="H16" s="9">
-        <v>6.6</v>
+        <v>6.55</v>
       </c>
       <c r="I16" s="10">
-        <v>9.1999999999999993</v>
+        <v>9.19</v>
       </c>
       <c r="J16" s="11">
-        <v>10.5</v>
+        <v>10.53</v>
       </c>
       <c r="K16" s="12">
-        <v>7.5</v>
+        <v>7.51</v>
       </c>
       <c r="L16" s="13">
         <v>8.6999999999999993</v>
       </c>
       <c r="M16" s="14">
-        <v>11.6</v>
+        <v>11.63</v>
       </c>
       <c r="N16" s="15">
-        <v>10.3</v>
+        <v>10.27</v>
       </c>
       <c r="O16" s="16">
-        <v>13.7</v>
+        <v>13.74</v>
       </c>
       <c r="P16" s="17">
         <v>14.5</v>
       </c>
       <c r="Q16" s="18">
-        <v>15.6</v>
+        <v>15.56</v>
       </c>
       <c r="R16" s="19">
-        <v>17.8</v>
+        <v>17.829999999999998</v>
       </c>
       <c r="S16" s="20">
-        <v>17.899999999999999</v>
+        <v>17.87</v>
       </c>
       <c r="T16" s="21">
-        <v>16.399999999999999</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="U16" s="22">
-        <v>16.600000000000001</v>
+        <v>16.559999999999999</v>
       </c>
       <c r="V16" s="23">
-        <v>18</v>
+        <v>17.989999999999998</v>
       </c>
       <c r="W16" s="24">
-        <v>21.3</v>
+        <v>21.33</v>
       </c>
       <c r="X16" s="25">
-        <v>24.6</v>
+        <v>24.61</v>
       </c>
       <c r="Y16" s="26">
-        <v>23.4</v>
+        <v>23.43</v>
       </c>
       <c r="Z16" s="27">
-        <v>24.4</v>
+        <v>24.39</v>
       </c>
       <c r="AA16" s="28">
-        <v>25.9</v>
+        <v>25.92</v>
       </c>
       <c r="AB16" s="29">
-        <v>30.9</v>
+        <v>30.89</v>
       </c>
       <c r="AC16" s="30">
-        <v>38.6</v>
+        <v>38.56</v>
       </c>
       <c r="AD16" s="31">
-        <v>40.1</v>
+        <v>40.07</v>
       </c>
       <c r="AE16" s="32">
-        <v>42.4</v>
+        <v>42.43</v>
       </c>
       <c r="AF16" s="33">
-        <v>53.6</v>
+        <v>53.63</v>
       </c>
       <c r="AG16" s="34">
-        <v>49.9</v>
+        <v>49.87</v>
       </c>
       <c r="AH16" s="35">
-        <v>43.6</v>
+        <v>43.62</v>
       </c>
       <c r="AI16" s="36">
-        <v>69.8</v>
+        <v>69.84</v>
       </c>
       <c r="AJ16" s="37">
-        <v>67.599999999999994</v>
+        <v>67.56</v>
       </c>
       <c r="AK16" s="38">
-        <v>78.7</v>
+        <v>78.650000000000006</v>
       </c>
       <c r="AL16" s="39">
-        <v>81.7</v>
+        <v>81.739999999999995</v>
       </c>
       <c r="AM16" s="40">
-        <v>84.2</v>
+        <v>84.23</v>
       </c>
       <c r="AN16" s="41">
-        <v>96.5</v>
+        <v>96.48</v>
       </c>
       <c r="AO16" s="42">
-        <v>97.1</v>
+        <v>97.05</v>
       </c>
       <c r="AP16" s="43">
-        <v>105.6</v>
+        <v>105.59</v>
       </c>
       <c r="AQ16" s="44">
-        <v>114.9</v>
+        <v>114.94</v>
       </c>
       <c r="AR16" s="45">
         <v>124.2</v>
@@ -14871,124 +14871,124 @@
         <v>256</v>
       </c>
       <c r="E17" s="259">
-        <v>-0.2</v>
+        <v>-0.22</v>
       </c>
       <c r="F17" s="260">
-        <v>-0.3</v>
+        <v>-0.34</v>
       </c>
       <c r="G17" s="261">
-        <v>-0.3</v>
+        <v>-0.33</v>
       </c>
       <c r="H17" s="262">
-        <v>-0.5</v>
+        <v>-0.45</v>
       </c>
       <c r="I17" s="263">
-        <v>-0.6</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="J17" s="264">
         <v>0</v>
       </c>
       <c r="K17" s="265">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="L17" s="266">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="M17" s="267">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="N17" s="268">
-        <v>1.2</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="O17" s="269">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="P17" s="270">
         <v>0.2</v>
       </c>
       <c r="Q17" s="271">
-        <v>-0.2</v>
+        <v>-0.17</v>
       </c>
       <c r="R17" s="272">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="S17" s="273">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="T17" s="274">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="U17" s="275">
-        <v>3.1</v>
+        <v>3.08</v>
       </c>
       <c r="V17" s="276">
-        <v>2.2999999999999998</v>
+        <v>2.33</v>
       </c>
       <c r="W17" s="277">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X17" s="278">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="Y17" s="279">
-        <v>-0.5</v>
+        <v>-0.51</v>
       </c>
       <c r="Z17" s="280">
-        <v>-0.4</v>
+        <v>-0.39</v>
       </c>
       <c r="AA17" s="281">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="AB17" s="282">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AC17" s="283">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AD17" s="284">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="AE17" s="285">
-        <v>-1.2</v>
+        <v>-1.1599999999999999</v>
       </c>
       <c r="AF17" s="286">
         <v>-2.5</v>
       </c>
       <c r="AG17" s="287">
-        <v>-3.7</v>
+        <v>-3.74</v>
       </c>
       <c r="AH17" s="288">
-        <v>-3.1</v>
+        <v>-3.13</v>
       </c>
       <c r="AI17" s="289">
-        <v>-1.5</v>
+        <v>-1.52</v>
       </c>
       <c r="AJ17" s="290">
-        <v>-0.3</v>
+        <v>-0.32</v>
       </c>
       <c r="AK17" s="291">
-        <v>-0.6</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="AL17" s="292">
-        <v>-0.2</v>
+        <v>-0.19</v>
       </c>
       <c r="AM17" s="293">
         <v>-1.1000000000000001</v>
       </c>
       <c r="AN17" s="294">
-        <v>-1.4</v>
+        <v>-1.43</v>
       </c>
       <c r="AO17" s="295">
         <v>-2</v>
       </c>
       <c r="AP17" s="296">
-        <v>-1.6</v>
+        <v>-1.64</v>
       </c>
       <c r="AQ17" s="297">
-        <v>-1.3</v>
+        <v>-1.32</v>
       </c>
       <c r="AR17" s="298">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="AS17" s="299">
         <v>0</v>
@@ -15619,101 +15619,101 @@
       </c>
     </row>
     <row r="18" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>256</v>
       </c>
       <c r="E18" s="6">
-        <v>18.3</v>
+        <v>18.25</v>
       </c>
       <c r="F18" s="7">
         <v>22.5</v>
       </c>
       <c r="G18" s="8">
-        <v>25.3</v>
+        <v>25.25</v>
       </c>
       <c r="H18" s="9">
-        <v>25.4</v>
+        <v>25.35</v>
       </c>
       <c r="I18" s="10">
-        <v>26.7</v>
+        <v>26.65</v>
       </c>
       <c r="J18" s="11">
-        <v>29.4</v>
+        <v>29.36</v>
       </c>
       <c r="K18" s="12">
-        <v>29.4</v>
+        <v>29.43</v>
       </c>
       <c r="L18" s="13">
-        <v>31.3</v>
+        <v>31.26</v>
       </c>
       <c r="M18" s="14">
-        <v>36.1</v>
+        <v>36.090000000000003</v>
       </c>
       <c r="N18" s="15">
-        <v>32.4</v>
+        <v>32.380000000000003</v>
       </c>
       <c r="O18" s="16">
-        <v>28.7</v>
+        <v>28.65</v>
       </c>
       <c r="P18" s="17">
         <v>36.9</v>
       </c>
       <c r="Q18" s="18">
-        <v>47.4</v>
+        <v>47.42</v>
       </c>
       <c r="R18" s="19">
-        <v>52.4</v>
+        <v>52.42</v>
       </c>
       <c r="S18" s="20">
-        <v>56.7</v>
+        <v>56.69</v>
       </c>
       <c r="T18" s="21">
-        <v>67</v>
+        <v>66.98</v>
       </c>
       <c r="U18" s="22">
-        <v>74</v>
+        <v>73.989999999999995</v>
       </c>
       <c r="V18" s="23">
-        <v>79.2</v>
+        <v>79.209999999999994</v>
       </c>
       <c r="W18" s="24">
-        <v>90.8</v>
+        <v>90.77</v>
       </c>
       <c r="X18" s="25">
-        <v>100.2</v>
+        <v>100.17</v>
       </c>
       <c r="Y18" s="26">
         <v>82.6</v>
       </c>
       <c r="Z18" s="27">
-        <v>79.5</v>
+        <v>79.52</v>
       </c>
       <c r="AA18" s="28">
-        <v>72.2</v>
+        <v>72.22</v>
       </c>
       <c r="AB18" s="29">
-        <v>77.7</v>
+        <v>77.680000000000007</v>
       </c>
       <c r="AC18" s="30">
-        <v>83.8</v>
+        <v>83.83</v>
       </c>
       <c r="AD18" s="31">
-        <v>91.3</v>
+        <v>91.26</v>
       </c>
       <c r="AE18" s="32">
-        <v>96.1</v>
+        <v>96.08</v>
       </c>
       <c r="AF18" s="33">
-        <v>95.5</v>
+        <v>95.51</v>
       </c>
       <c r="AG18" s="34">
         <v>92.7</v>
@@ -15722,34 +15722,34 @@
         <v>100.5</v>
       </c>
       <c r="AI18" s="36">
-        <v>105.8</v>
+        <v>105.79</v>
       </c>
       <c r="AJ18" s="37">
-        <v>97.8</v>
+        <v>97.82</v>
       </c>
       <c r="AK18" s="38">
-        <v>128.30000000000001</v>
+        <v>128.31</v>
       </c>
       <c r="AL18" s="39">
-        <v>126</v>
+        <v>126.03</v>
       </c>
       <c r="AM18" s="40">
-        <v>114.4</v>
+        <v>114.43</v>
       </c>
       <c r="AN18" s="41">
-        <v>107.9</v>
+        <v>107.94</v>
       </c>
       <c r="AO18" s="42">
-        <v>122.9</v>
+        <v>122.88</v>
       </c>
       <c r="AP18" s="43">
-        <v>147.80000000000001</v>
+        <v>147.79</v>
       </c>
       <c r="AQ18" s="44">
-        <v>174.7</v>
+        <v>174.66</v>
       </c>
       <c r="AR18" s="45">
-        <v>161.1</v>
+        <v>161.13999999999999</v>
       </c>
       <c r="AS18" s="46">
         <v>193.2</v>
@@ -16393,22 +16393,22 @@
         <v>256</v>
       </c>
       <c r="E19" s="259">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="F19" s="260">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="G19" s="261">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="H19" s="262">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="I19" s="263">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="J19" s="264">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="K19" s="265">
         <v>1.5</v>
@@ -16420,94 +16420,94 @@
         <v>1.8</v>
       </c>
       <c r="N19" s="268">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O19" s="269">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P19" s="270">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q19" s="271">
-        <v>2.2999999999999998</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="R19" s="272">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S19" s="273">
         <v>2.7</v>
       </c>
       <c r="T19" s="274">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="U19" s="275">
-        <v>3</v>
+        <v>3.02</v>
       </c>
       <c r="V19" s="276">
-        <v>3.4</v>
+        <v>3.36</v>
       </c>
       <c r="W19" s="277">
-        <v>3.5</v>
+        <v>3.53</v>
       </c>
       <c r="X19" s="278">
-        <v>3.6</v>
+        <v>3.61</v>
       </c>
       <c r="Y19" s="279">
-        <v>3.9</v>
+        <v>3.86</v>
       </c>
       <c r="Z19" s="280">
         <v>4.3</v>
       </c>
       <c r="AA19" s="281">
-        <v>4.4000000000000004</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="AB19" s="282">
-        <v>4.8</v>
+        <v>4.78</v>
       </c>
       <c r="AC19" s="283">
-        <v>5</v>
+        <v>5.01</v>
       </c>
       <c r="AD19" s="284">
         <v>5.0999999999999996</v>
       </c>
       <c r="AE19" s="285">
-        <v>5.0999999999999996</v>
+        <v>5.12</v>
       </c>
       <c r="AF19" s="286">
-        <v>5.5</v>
+        <v>5.47</v>
       </c>
       <c r="AG19" s="287">
-        <v>6.5</v>
+        <v>6.48</v>
       </c>
       <c r="AH19" s="288">
-        <v>5.4</v>
+        <v>5.37</v>
       </c>
       <c r="AI19" s="289">
-        <v>7.3</v>
+        <v>7.31</v>
       </c>
       <c r="AJ19" s="290">
-        <v>7.1</v>
+        <v>7.13</v>
       </c>
       <c r="AK19" s="291">
-        <v>6.8</v>
+        <v>6.77</v>
       </c>
       <c r="AL19" s="292">
-        <v>6.5</v>
+        <v>6.48</v>
       </c>
       <c r="AM19" s="293">
-        <v>6.5</v>
+        <v>6.52</v>
       </c>
       <c r="AN19" s="294">
-        <v>7.3</v>
+        <v>7.28</v>
       </c>
       <c r="AO19" s="295">
-        <v>7.6</v>
+        <v>7.57</v>
       </c>
       <c r="AP19" s="296">
-        <v>7.4</v>
+        <v>7.44</v>
       </c>
       <c r="AQ19" s="297">
-        <v>8.1</v>
+        <v>8.14</v>
       </c>
       <c r="AR19" s="298">
         <v>8.3000000000000007</v>
@@ -17141,137 +17141,137 @@
       </c>
     </row>
     <row r="20" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>256</v>
       </c>
       <c r="E20" s="6">
-        <v>6.5</v>
+        <v>6.46</v>
       </c>
       <c r="F20" s="7">
-        <v>6.8</v>
+        <v>6.75</v>
       </c>
       <c r="G20" s="8">
-        <v>7.2</v>
+        <v>7.21</v>
       </c>
       <c r="H20" s="9">
-        <v>8.1</v>
+        <v>8.07</v>
       </c>
       <c r="I20" s="10">
         <v>8.6999999999999993</v>
       </c>
       <c r="J20" s="11">
-        <v>8.8000000000000007</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="K20" s="12">
-        <v>8.9</v>
+        <v>8.91</v>
       </c>
       <c r="L20" s="13">
-        <v>9.6999999999999993</v>
+        <v>9.65</v>
       </c>
       <c r="M20" s="14">
-        <v>9.6</v>
+        <v>9.6199999999999992</v>
       </c>
       <c r="N20" s="15">
-        <v>10.6</v>
+        <v>10.55</v>
       </c>
       <c r="O20" s="16">
-        <v>11.1</v>
+        <v>11.09</v>
       </c>
       <c r="P20" s="17">
-        <v>11.5</v>
+        <v>11.53</v>
       </c>
       <c r="Q20" s="18">
-        <v>15.1</v>
+        <v>15.08</v>
       </c>
       <c r="R20" s="19">
-        <v>15.7</v>
+        <v>15.71</v>
       </c>
       <c r="S20" s="20">
-        <v>17.399999999999999</v>
+        <v>17.38</v>
       </c>
       <c r="T20" s="21">
-        <v>18.399999999999999</v>
+        <v>18.43</v>
       </c>
       <c r="U20" s="22">
-        <v>21.3</v>
+        <v>21.26</v>
       </c>
       <c r="V20" s="23">
         <v>26.2</v>
       </c>
       <c r="W20" s="24">
-        <v>28</v>
+        <v>28.04</v>
       </c>
       <c r="X20" s="25">
-        <v>29.9</v>
+        <v>29.86</v>
       </c>
       <c r="Y20" s="26">
-        <v>30.6</v>
+        <v>30.59</v>
       </c>
       <c r="Z20" s="27">
-        <v>35.5</v>
+        <v>35.46</v>
       </c>
       <c r="AA20" s="28">
-        <v>36.5</v>
+        <v>36.53</v>
       </c>
       <c r="AB20" s="29">
-        <v>39.6</v>
+        <v>39.61</v>
       </c>
       <c r="AC20" s="30">
-        <v>41.3</v>
+        <v>41.28</v>
       </c>
       <c r="AD20" s="31">
-        <v>44.3</v>
+        <v>44.25</v>
       </c>
       <c r="AE20" s="32">
-        <v>45.6</v>
+        <v>45.55</v>
       </c>
       <c r="AF20" s="33">
-        <v>46.9</v>
+        <v>46.94</v>
       </c>
       <c r="AG20" s="34">
-        <v>49.4</v>
+        <v>49.37</v>
       </c>
       <c r="AH20" s="35">
-        <v>52.8</v>
+        <v>52.76</v>
       </c>
       <c r="AI20" s="36">
-        <v>56.9</v>
+        <v>56.87</v>
       </c>
       <c r="AJ20" s="37">
-        <v>61.8</v>
+        <v>61.82</v>
       </c>
       <c r="AK20" s="38">
-        <v>66.099999999999994</v>
+        <v>66.05</v>
       </c>
       <c r="AL20" s="39">
-        <v>70.599999999999994</v>
+        <v>70.61</v>
       </c>
       <c r="AM20" s="40">
-        <v>75.7</v>
+        <v>75.650000000000006</v>
       </c>
       <c r="AN20" s="41">
-        <v>78.099999999999994</v>
+        <v>78.069999999999993</v>
       </c>
       <c r="AO20" s="42">
-        <v>82.8</v>
+        <v>82.76</v>
       </c>
       <c r="AP20" s="43">
-        <v>84.9</v>
+        <v>84.89</v>
       </c>
       <c r="AQ20" s="44">
         <v>95.4</v>
       </c>
       <c r="AR20" s="45">
-        <v>114.6</v>
+        <v>114.61</v>
       </c>
       <c r="AS20" s="46">
         <v>104.7</v>
@@ -17915,124 +17915,124 @@
         <v>256</v>
       </c>
       <c r="E21" s="259">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="F21" s="260">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="G21" s="261">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="H21" s="262">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="I21" s="263">
         <v>0.4</v>
       </c>
       <c r="J21" s="264">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="K21" s="265">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="L21" s="266">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="M21" s="267">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="N21" s="268">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O21" s="269">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="P21" s="270">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="Q21" s="271">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="R21" s="272">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="S21" s="273">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="T21" s="274">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="U21" s="275">
-        <v>1.1000000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="V21" s="276">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W21" s="277">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="X21" s="278">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Y21" s="279">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Z21" s="280">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="AA21" s="281">
         <v>2.2000000000000002</v>
       </c>
       <c r="AB21" s="282">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="AC21" s="283">
-        <v>2.5</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="AD21" s="284">
-        <v>3.1</v>
+        <v>3.12</v>
       </c>
       <c r="AE21" s="285">
-        <v>3.2</v>
+        <v>3.24</v>
       </c>
       <c r="AF21" s="286">
-        <v>3.4</v>
+        <v>3.37</v>
       </c>
       <c r="AG21" s="287">
-        <v>3.4</v>
+        <v>3.41</v>
       </c>
       <c r="AH21" s="288">
-        <v>3.5</v>
+        <v>3.53</v>
       </c>
       <c r="AI21" s="289">
-        <v>3.7</v>
+        <v>3.72</v>
       </c>
       <c r="AJ21" s="290">
-        <v>4.2</v>
+        <v>4.17</v>
       </c>
       <c r="AK21" s="291">
-        <v>4.4000000000000004</v>
+        <v>4.41</v>
       </c>
       <c r="AL21" s="292">
-        <v>4.2</v>
+        <v>4.24</v>
       </c>
       <c r="AM21" s="293">
-        <v>5</v>
+        <v>4.95</v>
       </c>
       <c r="AN21" s="294">
-        <v>5.0999999999999996</v>
+        <v>5.08</v>
       </c>
       <c r="AO21" s="295">
-        <v>5.7</v>
+        <v>5.74</v>
       </c>
       <c r="AP21" s="296">
-        <v>6.5</v>
+        <v>6.51</v>
       </c>
       <c r="AQ21" s="297">
-        <v>6.7</v>
+        <v>6.69</v>
       </c>
       <c r="AR21" s="298">
-        <v>7.3</v>
+        <v>7.27</v>
       </c>
       <c r="AS21" s="299">
         <v>8</v>
@@ -18663,137 +18663,137 @@
       </c>
     </row>
     <row r="22" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>256</v>
       </c>
       <c r="E22" s="6">
-        <v>2</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="F22" s="7">
         <v>2.1</v>
       </c>
       <c r="G22" s="8">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="H22" s="9">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="I22" s="10">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="J22" s="11">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="K22" s="12">
-        <v>2.1</v>
+        <v>2.13</v>
       </c>
       <c r="L22" s="13">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="M22" s="14">
-        <v>2.2000000000000002</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="N22" s="15">
-        <v>2.2999999999999998</v>
+        <v>2.29</v>
       </c>
       <c r="O22" s="16">
-        <v>3.2</v>
+        <v>3.19</v>
       </c>
       <c r="P22" s="17">
         <v>3.3</v>
       </c>
       <c r="Q22" s="18">
-        <v>3.5</v>
+        <v>3.47</v>
       </c>
       <c r="R22" s="19">
-        <v>3</v>
+        <v>3.04</v>
       </c>
       <c r="S22" s="20">
         <v>3.4</v>
       </c>
       <c r="T22" s="21">
-        <v>3.8</v>
+        <v>3.81</v>
       </c>
       <c r="U22" s="22">
-        <v>4.5999999999999996</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="V22" s="23">
-        <v>4.5</v>
+        <v>4.46</v>
       </c>
       <c r="W22" s="24">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="X22" s="25">
-        <v>5</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="Y22" s="26">
-        <v>5.5</v>
+        <v>5.53</v>
       </c>
       <c r="Z22" s="27">
-        <v>6.2</v>
+        <v>6.18</v>
       </c>
       <c r="AA22" s="28">
-        <v>6.8</v>
+        <v>6.81</v>
       </c>
       <c r="AB22" s="29">
-        <v>7</v>
+        <v>7.04</v>
       </c>
       <c r="AC22" s="30">
-        <v>7.4</v>
+        <v>7.39</v>
       </c>
       <c r="AD22" s="31">
-        <v>9.4</v>
+        <v>9.36</v>
       </c>
       <c r="AE22" s="32">
-        <v>9</v>
+        <v>9.01</v>
       </c>
       <c r="AF22" s="33">
-        <v>9.1</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="AG22" s="34">
-        <v>9.6999999999999993</v>
+        <v>9.74</v>
       </c>
       <c r="AH22" s="35">
-        <v>10.3</v>
+        <v>10.25</v>
       </c>
       <c r="AI22" s="36">
-        <v>11.7</v>
+        <v>11.69</v>
       </c>
       <c r="AJ22" s="37">
-        <v>13.1</v>
+        <v>13.06</v>
       </c>
       <c r="AK22" s="38">
-        <v>14.8</v>
+        <v>14.77</v>
       </c>
       <c r="AL22" s="39">
-        <v>16.600000000000001</v>
+        <v>16.62</v>
       </c>
       <c r="AM22" s="40">
-        <v>17.899999999999999</v>
+        <v>17.89</v>
       </c>
       <c r="AN22" s="41">
-        <v>22.1</v>
+        <v>22.11</v>
       </c>
       <c r="AO22" s="42">
-        <v>21.4</v>
+        <v>21.42</v>
       </c>
       <c r="AP22" s="43">
         <v>24.6</v>
       </c>
       <c r="AQ22" s="44">
-        <v>30.4</v>
+        <v>30.42</v>
       </c>
       <c r="AR22" s="45">
-        <v>32.5</v>
+        <v>32.47</v>
       </c>
       <c r="AS22" s="46">
         <v>29.7</v>
@@ -19437,109 +19437,109 @@
         <v>256</v>
       </c>
       <c r="E23" s="259">
-        <v>6.3</v>
+        <v>6.32</v>
       </c>
       <c r="F23" s="260">
-        <v>6.4</v>
+        <v>6.42</v>
       </c>
       <c r="G23" s="261">
         <v>6.5</v>
       </c>
       <c r="H23" s="262">
-        <v>7</v>
+        <v>6.98</v>
       </c>
       <c r="I23" s="263">
-        <v>9.1</v>
+        <v>9.09</v>
       </c>
       <c r="J23" s="264">
-        <v>7.3</v>
+        <v>7.28</v>
       </c>
       <c r="K23" s="265">
-        <v>7.2</v>
+        <v>7.16</v>
       </c>
       <c r="L23" s="266">
-        <v>7.6</v>
+        <v>7.64</v>
       </c>
       <c r="M23" s="267">
-        <v>8.6</v>
+        <v>8.58</v>
       </c>
       <c r="N23" s="268">
-        <v>9.6</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="O23" s="269">
-        <v>10.199999999999999</v>
+        <v>10.16</v>
       </c>
       <c r="P23" s="270">
-        <v>12.2</v>
+        <v>12.16</v>
       </c>
       <c r="Q23" s="271">
-        <v>14.2</v>
+        <v>14.15</v>
       </c>
       <c r="R23" s="272">
-        <v>13.6</v>
+        <v>13.58</v>
       </c>
       <c r="S23" s="273">
-        <v>14.7</v>
+        <v>14.66</v>
       </c>
       <c r="T23" s="274">
-        <v>14.9</v>
+        <v>14.87</v>
       </c>
       <c r="U23" s="275">
-        <v>16.5</v>
+        <v>16.47</v>
       </c>
       <c r="V23" s="276">
-        <v>22.4</v>
+        <v>22.38</v>
       </c>
       <c r="W23" s="277">
-        <v>20.2</v>
+        <v>20.16</v>
       </c>
       <c r="X23" s="278">
-        <v>22.9</v>
+        <v>22.85</v>
       </c>
       <c r="Y23" s="279">
-        <v>24.9</v>
+        <v>24.91</v>
       </c>
       <c r="Z23" s="280">
-        <v>24.7</v>
+        <v>24.67</v>
       </c>
       <c r="AA23" s="281">
-        <v>28.9</v>
+        <v>28.87</v>
       </c>
       <c r="AB23" s="282">
-        <v>33.5</v>
+        <v>33.49</v>
       </c>
       <c r="AC23" s="283">
-        <v>34.9</v>
+        <v>34.869999999999997</v>
       </c>
       <c r="AD23" s="284">
-        <v>40.4</v>
+        <v>40.42</v>
       </c>
       <c r="AE23" s="285">
-        <v>38.299999999999997</v>
+        <v>38.270000000000003</v>
       </c>
       <c r="AF23" s="286">
-        <v>39.4</v>
+        <v>39.35</v>
       </c>
       <c r="AG23" s="287">
-        <v>44.2</v>
+        <v>44.22</v>
       </c>
       <c r="AH23" s="288">
-        <v>50.5</v>
+        <v>50.51</v>
       </c>
       <c r="AI23" s="289">
-        <v>46.4</v>
+        <v>46.35</v>
       </c>
       <c r="AJ23" s="290">
-        <v>59.5</v>
+        <v>59.47</v>
       </c>
       <c r="AK23" s="291">
-        <v>50.8</v>
+        <v>50.75</v>
       </c>
       <c r="AL23" s="292">
-        <v>59.4</v>
+        <v>59.41</v>
       </c>
       <c r="AM23" s="293">
-        <v>63.9</v>
+        <v>63.92</v>
       </c>
       <c r="AN23" s="294">
         <v>67.3</v>
@@ -19548,13 +19548,13 @@
         <v>70.099999999999994</v>
       </c>
       <c r="AP23" s="296">
-        <v>78.400000000000006</v>
+        <v>78.44</v>
       </c>
       <c r="AQ23" s="297">
-        <v>85.5</v>
+        <v>85.51</v>
       </c>
       <c r="AR23" s="298">
-        <v>93.6</v>
+        <v>93.63</v>
       </c>
       <c r="AS23" s="299">
         <v>87.3</v>
@@ -20185,137 +20185,137 @@
       </c>
     </row>
     <row r="24" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>256</v>
       </c>
       <c r="E24" s="6">
-        <v>2.2999999999999998</v>
+        <v>2.27</v>
       </c>
       <c r="F24" s="7">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="G24" s="8">
-        <v>2.2000000000000002</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="H24" s="9">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="I24" s="10">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="J24" s="11">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="K24" s="12">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="L24" s="13">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="M24" s="14">
-        <v>3.2</v>
+        <v>3.21</v>
       </c>
       <c r="N24" s="15">
-        <v>3.4</v>
+        <v>3.39</v>
       </c>
       <c r="O24" s="16">
-        <v>3.6</v>
+        <v>3.57</v>
       </c>
       <c r="P24" s="17">
-        <v>3.7</v>
+        <v>3.68</v>
       </c>
       <c r="Q24" s="18">
         <v>3.7</v>
       </c>
       <c r="R24" s="19">
-        <v>3.8</v>
+        <v>3.81</v>
       </c>
       <c r="S24" s="20">
-        <v>4</v>
+        <v>4.01</v>
       </c>
       <c r="T24" s="21">
-        <v>4.3</v>
+        <v>4.34</v>
       </c>
       <c r="U24" s="22">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="V24" s="23">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="W24" s="24">
-        <v>4.8</v>
+        <v>4.76</v>
       </c>
       <c r="X24" s="25">
-        <v>5.2</v>
+        <v>5.19</v>
       </c>
       <c r="Y24" s="26">
-        <v>5.7</v>
+        <v>5.74</v>
       </c>
       <c r="Z24" s="27">
         <v>6</v>
       </c>
       <c r="AA24" s="28">
-        <v>6.5</v>
+        <v>6.45</v>
       </c>
       <c r="AB24" s="29">
-        <v>7.3</v>
+        <v>7.31</v>
       </c>
       <c r="AC24" s="30">
-        <v>8.4</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="AD24" s="31">
-        <v>9.8000000000000007</v>
+        <v>9.7899999999999991</v>
       </c>
       <c r="AE24" s="32">
         <v>10.8</v>
       </c>
       <c r="AF24" s="33">
-        <v>11.8</v>
+        <v>11.77</v>
       </c>
       <c r="AG24" s="34">
         <v>13.2</v>
       </c>
       <c r="AH24" s="35">
-        <v>14.3</v>
+        <v>14.33</v>
       </c>
       <c r="AI24" s="36">
-        <v>15.8</v>
+        <v>15.78</v>
       </c>
       <c r="AJ24" s="37">
-        <v>17.2</v>
+        <v>17.21</v>
       </c>
       <c r="AK24" s="38">
         <v>18.899999999999999</v>
       </c>
       <c r="AL24" s="39">
-        <v>21</v>
+        <v>20.97</v>
       </c>
       <c r="AM24" s="40">
         <v>22.6</v>
       </c>
       <c r="AN24" s="41">
-        <v>24.6</v>
+        <v>24.56</v>
       </c>
       <c r="AO24" s="42">
-        <v>26.1</v>
+        <v>26.09</v>
       </c>
       <c r="AP24" s="43">
-        <v>28.2</v>
+        <v>28.18</v>
       </c>
       <c r="AQ24" s="44">
-        <v>29.3</v>
+        <v>29.29</v>
       </c>
       <c r="AR24" s="45">
-        <v>32.200000000000003</v>
+        <v>32.15</v>
       </c>
       <c r="AS24" s="46">
         <v>33.1</v>
@@ -20959,124 +20959,124 @@
         <v>256</v>
       </c>
       <c r="E25" s="259">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="F25" s="260">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="G25" s="261">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="H25" s="262">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="I25" s="263">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="J25" s="264">
         <v>0.9</v>
       </c>
       <c r="K25" s="265">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="L25" s="266">
         <v>1</v>
       </c>
       <c r="M25" s="267">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="N25" s="268">
-        <v>1.1000000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="O25" s="269">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P25" s="270">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="Q25" s="271">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="R25" s="272">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="S25" s="273">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="T25" s="274">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U25" s="275">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="V25" s="276">
-        <v>2</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="W25" s="277">
-        <v>2.2000000000000002</v>
+        <v>2.15</v>
       </c>
       <c r="X25" s="278">
-        <v>2.2000000000000002</v>
+        <v>2.21</v>
       </c>
       <c r="Y25" s="279">
-        <v>2.2999999999999998</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="Z25" s="280">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="AA25" s="281">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AB25" s="282">
-        <v>2.5</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="AC25" s="283">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="AD25" s="284">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="AE25" s="285">
-        <v>3.1</v>
+        <v>3.11</v>
       </c>
       <c r="AF25" s="286">
-        <v>3.8</v>
+        <v>3.79</v>
       </c>
       <c r="AG25" s="287">
-        <v>3.8</v>
+        <v>3.78</v>
       </c>
       <c r="AH25" s="288">
-        <v>4</v>
+        <v>4.01</v>
       </c>
       <c r="AI25" s="289">
-        <v>4.4000000000000004</v>
+        <v>4.37</v>
       </c>
       <c r="AJ25" s="290">
-        <v>5</v>
+        <v>5.03</v>
       </c>
       <c r="AK25" s="291">
-        <v>5.8</v>
+        <v>5.81</v>
       </c>
       <c r="AL25" s="292">
-        <v>6.6</v>
+        <v>6.61</v>
       </c>
       <c r="AM25" s="293">
-        <v>7.3</v>
+        <v>7.33</v>
       </c>
       <c r="AN25" s="294">
-        <v>7.8</v>
+        <v>7.76</v>
       </c>
       <c r="AO25" s="295">
-        <v>8.6</v>
+        <v>8.56</v>
       </c>
       <c r="AP25" s="296">
-        <v>9</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="AQ25" s="297">
-        <v>9.6</v>
+        <v>9.56</v>
       </c>
       <c r="AR25" s="298">
-        <v>10.3</v>
+        <v>10.29</v>
       </c>
       <c r="AS25" s="299">
         <v>12.2</v>
@@ -21707,134 +21707,134 @@
       </c>
     </row>
     <row r="26" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>256</v>
       </c>
       <c r="E26" s="6">
-        <v>4.3</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="F26" s="7">
-        <v>4.5999999999999996</v>
+        <v>4.62</v>
       </c>
       <c r="G26" s="8">
-        <v>4.4000000000000004</v>
+        <v>4.38</v>
       </c>
       <c r="H26" s="9">
-        <v>4.5999999999999996</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="I26" s="10">
-        <v>4.7</v>
+        <v>4.68</v>
       </c>
       <c r="J26" s="11">
-        <v>4.5999999999999996</v>
+        <v>4.62</v>
       </c>
       <c r="K26" s="12">
-        <v>4.5999999999999996</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="L26" s="13">
-        <v>4.5</v>
+        <v>4.53</v>
       </c>
       <c r="M26" s="14">
-        <v>4.8</v>
+        <v>4.76</v>
       </c>
       <c r="N26" s="15">
-        <v>4.9000000000000004</v>
+        <v>4.92</v>
       </c>
       <c r="O26" s="16">
         <v>5.0999999999999996</v>
       </c>
       <c r="P26" s="17">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="Q26" s="18">
-        <v>5.5</v>
+        <v>5.54</v>
       </c>
       <c r="R26" s="19">
         <v>5.9</v>
       </c>
       <c r="S26" s="20">
-        <v>6.4</v>
+        <v>6.39</v>
       </c>
       <c r="T26" s="21">
-        <v>6.6</v>
+        <v>6.63</v>
       </c>
       <c r="U26" s="22">
-        <v>7</v>
+        <v>6.95</v>
       </c>
       <c r="V26" s="23">
-        <v>7.3</v>
+        <v>7.27</v>
       </c>
       <c r="W26" s="24">
         <v>7.4</v>
       </c>
       <c r="X26" s="25">
-        <v>7.8</v>
+        <v>7.83</v>
       </c>
       <c r="Y26" s="26">
-        <v>7.9</v>
+        <v>7.91</v>
       </c>
       <c r="Z26" s="27">
-        <v>8.3000000000000007</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="AA26" s="28">
-        <v>8.6</v>
+        <v>8.6199999999999992</v>
       </c>
       <c r="AB26" s="29">
-        <v>9.1999999999999993</v>
+        <v>9.15</v>
       </c>
       <c r="AC26" s="30">
-        <v>9.6</v>
+        <v>9.57</v>
       </c>
       <c r="AD26" s="31">
-        <v>10.1</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="AE26" s="32">
-        <v>10.6</v>
+        <v>10.59</v>
       </c>
       <c r="AF26" s="33">
-        <v>11.3</v>
+        <v>11.32</v>
       </c>
       <c r="AG26" s="34">
-        <v>13.4</v>
+        <v>13.36</v>
       </c>
       <c r="AH26" s="35">
         <v>14.1</v>
       </c>
       <c r="AI26" s="36">
-        <v>15.1</v>
+        <v>15.12</v>
       </c>
       <c r="AJ26" s="37">
-        <v>15.6</v>
+        <v>15.57</v>
       </c>
       <c r="AK26" s="38">
-        <v>16.8</v>
+        <v>16.77</v>
       </c>
       <c r="AL26" s="39">
-        <v>17.2</v>
+        <v>17.21</v>
       </c>
       <c r="AM26" s="40">
-        <v>17.600000000000001</v>
+        <v>17.57</v>
       </c>
       <c r="AN26" s="41">
-        <v>18.399999999999999</v>
+        <v>18.41</v>
       </c>
       <c r="AO26" s="42">
-        <v>19.3</v>
+        <v>19.32</v>
       </c>
       <c r="AP26" s="43">
-        <v>20.8</v>
+        <v>20.79</v>
       </c>
       <c r="AQ26" s="44">
-        <v>20.9</v>
+        <v>20.91</v>
       </c>
       <c r="AR26" s="45">
         <v>21.5</v>
@@ -22481,124 +22481,124 @@
         <v>256</v>
       </c>
       <c r="E27" s="259">
-        <v>5.0999999999999996</v>
+        <v>5.13</v>
       </c>
       <c r="F27" s="260">
-        <v>5.0999999999999996</v>
+        <v>5.09</v>
       </c>
       <c r="G27" s="261">
-        <v>5.2</v>
+        <v>5.19</v>
       </c>
       <c r="H27" s="262">
-        <v>5.6</v>
+        <v>5.55</v>
       </c>
       <c r="I27" s="263">
-        <v>6.1</v>
+        <v>6.09</v>
       </c>
       <c r="J27" s="264">
-        <v>6.3</v>
+        <v>6.31</v>
       </c>
       <c r="K27" s="265">
-        <v>6.2</v>
+        <v>6.24</v>
       </c>
       <c r="L27" s="266">
-        <v>6.3</v>
+        <v>6.31</v>
       </c>
       <c r="M27" s="267">
-        <v>6.6</v>
+        <v>6.55</v>
       </c>
       <c r="N27" s="268">
-        <v>8.8000000000000007</v>
+        <v>8.75</v>
       </c>
       <c r="O27" s="269">
-        <v>8.6</v>
+        <v>8.56</v>
       </c>
       <c r="P27" s="270">
-        <v>8.1</v>
+        <v>8.07</v>
       </c>
       <c r="Q27" s="271">
         <v>7.8</v>
       </c>
       <c r="R27" s="272">
-        <v>8.1999999999999993</v>
+        <v>8.23</v>
       </c>
       <c r="S27" s="273">
-        <v>8.9</v>
+        <v>8.92</v>
       </c>
       <c r="T27" s="274">
-        <v>9.3000000000000007</v>
+        <v>9.27</v>
       </c>
       <c r="U27" s="275">
-        <v>10.1</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="V27" s="276">
-        <v>10.5</v>
+        <v>10.45</v>
       </c>
       <c r="W27" s="277">
-        <v>10.3</v>
+        <v>10.32</v>
       </c>
       <c r="X27" s="278">
-        <v>11.4</v>
+        <v>11.39</v>
       </c>
       <c r="Y27" s="279">
-        <v>12.3</v>
+        <v>12.25</v>
       </c>
       <c r="Z27" s="280">
-        <v>12.7</v>
+        <v>12.71</v>
       </c>
       <c r="AA27" s="281">
-        <v>12.9</v>
+        <v>12.89</v>
       </c>
       <c r="AB27" s="282">
-        <v>12.1</v>
+        <v>12.11</v>
       </c>
       <c r="AC27" s="283">
-        <v>15.2</v>
+        <v>15.24</v>
       </c>
       <c r="AD27" s="284">
-        <v>15.9</v>
+        <v>15.93</v>
       </c>
       <c r="AE27" s="285">
-        <v>16.7</v>
+        <v>16.649999999999999</v>
       </c>
       <c r="AF27" s="286">
         <v>17.3</v>
       </c>
       <c r="AG27" s="287">
-        <v>17.3</v>
+        <v>17.260000000000002</v>
       </c>
       <c r="AH27" s="288">
         <v>20.7</v>
       </c>
       <c r="AI27" s="289">
-        <v>21</v>
+        <v>20.98</v>
       </c>
       <c r="AJ27" s="290">
-        <v>21.2</v>
+        <v>21.16</v>
       </c>
       <c r="AK27" s="291">
-        <v>22.8</v>
+        <v>22.81</v>
       </c>
       <c r="AL27" s="292">
-        <v>24.8</v>
+        <v>24.78</v>
       </c>
       <c r="AM27" s="293">
         <v>26.3</v>
       </c>
       <c r="AN27" s="294">
-        <v>28</v>
+        <v>27.97</v>
       </c>
       <c r="AO27" s="295">
-        <v>28.3</v>
+        <v>28.31</v>
       </c>
       <c r="AP27" s="296">
-        <v>30.1</v>
+        <v>30.08</v>
       </c>
       <c r="AQ27" s="297">
-        <v>33.9</v>
+        <v>33.89</v>
       </c>
       <c r="AR27" s="298">
-        <v>36</v>
+        <v>35.979999999999997</v>
       </c>
       <c r="AS27" s="299">
         <v>36.200000000000003</v>
@@ -23229,116 +23229,116 @@
       </c>
     </row>
     <row r="28" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>256</v>
       </c>
       <c r="E28" s="6">
-        <v>2.5</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="F28" s="7">
-        <v>2.5</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="G28" s="8">
-        <v>2.6</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="H28" s="9">
         <v>2.6</v>
       </c>
       <c r="I28" s="10">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="J28" s="11">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="K28" s="12">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="L28" s="13">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="M28" s="14">
-        <v>2.9</v>
+        <v>2.93</v>
       </c>
       <c r="N28" s="15">
         <v>3.4</v>
       </c>
       <c r="O28" s="16">
-        <v>3.5</v>
+        <v>3.46</v>
       </c>
       <c r="P28" s="17">
-        <v>3.5</v>
+        <v>3.53</v>
       </c>
       <c r="Q28" s="18">
-        <v>3.5</v>
+        <v>3.52</v>
       </c>
       <c r="R28" s="19">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="S28" s="20">
-        <v>3.7</v>
+        <v>3.73</v>
       </c>
       <c r="T28" s="21">
-        <v>3.8</v>
+        <v>3.81</v>
       </c>
       <c r="U28" s="22">
-        <v>3.9</v>
+        <v>3.94</v>
       </c>
       <c r="V28" s="23">
-        <v>4</v>
+        <v>4.03</v>
       </c>
       <c r="W28" s="24">
-        <v>4.0999999999999996</v>
+        <v>4.13</v>
       </c>
       <c r="X28" s="25">
-        <v>4.2</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="Y28" s="26">
-        <v>4.3</v>
+        <v>4.26</v>
       </c>
       <c r="Z28" s="27">
-        <v>4.4000000000000004</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="AA28" s="28">
-        <v>4.5</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="AB28" s="29">
-        <v>4.5999999999999996</v>
+        <v>4.62</v>
       </c>
       <c r="AC28" s="30">
-        <v>5.0999999999999996</v>
+        <v>5.05</v>
       </c>
       <c r="AD28" s="31">
-        <v>7</v>
+        <v>6.99</v>
       </c>
       <c r="AE28" s="32">
-        <v>7.2</v>
+        <v>7.22</v>
       </c>
       <c r="AF28" s="33">
-        <v>7.5</v>
+        <v>7.45</v>
       </c>
       <c r="AG28" s="34">
-        <v>7.5</v>
+        <v>7.53</v>
       </c>
       <c r="AH28" s="35">
-        <v>9.1999999999999993</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="AI28" s="36">
-        <v>9.5</v>
+        <v>9.5399999999999991</v>
       </c>
       <c r="AJ28" s="37">
-        <v>9.9</v>
+        <v>9.91</v>
       </c>
       <c r="AK28" s="38">
-        <v>12</v>
+        <v>11.99</v>
       </c>
       <c r="AL28" s="39">
         <v>12.7</v>
@@ -23347,19 +23347,19 @@
         <v>13.2</v>
       </c>
       <c r="AN28" s="41">
-        <v>13.9</v>
+        <v>13.89</v>
       </c>
       <c r="AO28" s="42">
-        <v>14.4</v>
+        <v>14.43</v>
       </c>
       <c r="AP28" s="43">
-        <v>14.9</v>
+        <v>14.89</v>
       </c>
       <c r="AQ28" s="44">
-        <v>16.600000000000001</v>
+        <v>16.62</v>
       </c>
       <c r="AR28" s="45">
-        <v>20.8</v>
+        <v>20.79</v>
       </c>
       <c r="AS28" s="46">
         <v>22.2</v>
@@ -24003,124 +24003,124 @@
         <v>256</v>
       </c>
       <c r="E29" s="259">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="F29" s="260">
-        <v>0.6</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G29" s="261">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="H29" s="262">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="I29" s="263">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="J29" s="264">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="K29" s="265">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="L29" s="266">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="M29" s="267">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="N29" s="268">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="O29" s="269">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="P29" s="270">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="Q29" s="271">
-        <v>1.1000000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="R29" s="272">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="S29" s="273">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="T29" s="274">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="U29" s="275">
-        <v>1.1000000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="V29" s="276">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="W29" s="277">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="X29" s="278">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="Y29" s="279">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Z29" s="280">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AA29" s="281">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="AB29" s="282">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="AC29" s="283">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AD29" s="284">
-        <v>2.2000000000000002</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="AE29" s="285">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="AF29" s="286">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="AG29" s="287">
-        <v>2.2000000000000002</v>
+        <v>2.23</v>
       </c>
       <c r="AH29" s="288">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="AI29" s="289">
-        <v>2.6</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="AJ29" s="290">
         <v>2.8</v>
       </c>
       <c r="AK29" s="291">
-        <v>3.1</v>
+        <v>3.06</v>
       </c>
       <c r="AL29" s="292">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AM29" s="293">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="AN29" s="294">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AO29" s="295">
-        <v>3.2</v>
+        <v>3.22</v>
       </c>
       <c r="AP29" s="296">
         <v>3.9</v>
       </c>
       <c r="AQ29" s="297">
-        <v>3.9</v>
+        <v>3.89</v>
       </c>
       <c r="AR29" s="298">
-        <v>4</v>
+        <v>3.98</v>
       </c>
       <c r="AS29" s="299">
         <v>3.6</v>
@@ -24751,137 +24751,137 @@
       </c>
     </row>
     <row r="30" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>256</v>
       </c>
       <c r="E30" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="F30" s="7">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="G30" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="H30" s="9">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="I30" s="10">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="J30" s="11">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="K30" s="12">
         <v>1.4</v>
       </c>
       <c r="L30" s="13">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M30" s="14">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="N30" s="15">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="O30" s="16">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="P30" s="17">
-        <v>2</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="Q30" s="18">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="R30" s="19">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S30" s="20">
-        <v>2</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="T30" s="21">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="U30" s="22">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V30" s="23">
-        <v>2.2999999999999998</v>
+        <v>2.33</v>
       </c>
       <c r="W30" s="24">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="X30" s="25">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="Y30" s="26">
-        <v>2.8</v>
+        <v>2.83</v>
       </c>
       <c r="Z30" s="27">
-        <v>3.1</v>
+        <v>3.11</v>
       </c>
       <c r="AA30" s="28">
-        <v>3.4</v>
+        <v>3.43</v>
       </c>
       <c r="AB30" s="29">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AC30" s="30">
         <v>3.6</v>
       </c>
       <c r="AD30" s="31">
-        <v>4.0999999999999996</v>
+        <v>4.08</v>
       </c>
       <c r="AE30" s="32">
-        <v>4.5999999999999996</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="AF30" s="33">
-        <v>4.5999999999999996</v>
+        <v>4.62</v>
       </c>
       <c r="AG30" s="34">
-        <v>5.5</v>
+        <v>5.53</v>
       </c>
       <c r="AH30" s="35">
-        <v>6.1</v>
+        <v>6.06</v>
       </c>
       <c r="AI30" s="36">
-        <v>6.7</v>
+        <v>6.71</v>
       </c>
       <c r="AJ30" s="37">
-        <v>6.7</v>
+        <v>6.72</v>
       </c>
       <c r="AK30" s="38">
-        <v>7.8</v>
+        <v>7.77</v>
       </c>
       <c r="AL30" s="39">
-        <v>8.3000000000000007</v>
+        <v>8.34</v>
       </c>
       <c r="AM30" s="40">
-        <v>8.9</v>
+        <v>8.91</v>
       </c>
       <c r="AN30" s="41">
-        <v>9.8000000000000007</v>
+        <v>9.7799999999999994</v>
       </c>
       <c r="AO30" s="42">
-        <v>10.5</v>
+        <v>10.51</v>
       </c>
       <c r="AP30" s="43">
-        <v>11.2</v>
+        <v>11.24</v>
       </c>
       <c r="AQ30" s="44">
-        <v>12.1</v>
+        <v>12.05</v>
       </c>
       <c r="AR30" s="45">
-        <v>13.4</v>
+        <v>13.42</v>
       </c>
       <c r="AS30" s="46">
         <v>15.1</v>
@@ -25525,118 +25525,118 @@
         <v>256</v>
       </c>
       <c r="E31" s="259">
-        <v>4.2</v>
+        <v>4.24</v>
       </c>
       <c r="F31" s="260">
-        <v>4.4000000000000004</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="G31" s="261">
-        <v>4.5999999999999996</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="H31" s="262">
-        <v>4.4000000000000004</v>
+        <v>4.37</v>
       </c>
       <c r="I31" s="263">
-        <v>4.4000000000000004</v>
+        <v>4.41</v>
       </c>
       <c r="J31" s="264">
-        <v>4.2</v>
+        <v>4.22</v>
       </c>
       <c r="K31" s="265">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="L31" s="266">
-        <v>4.9000000000000004</v>
+        <v>4.87</v>
       </c>
       <c r="M31" s="267">
-        <v>5.9</v>
+        <v>5.91</v>
       </c>
       <c r="N31" s="268">
-        <v>6.4</v>
+        <v>6.38</v>
       </c>
       <c r="O31" s="269">
-        <v>6.7</v>
+        <v>6.72</v>
       </c>
       <c r="P31" s="270">
-        <v>7.1</v>
+        <v>7.11</v>
       </c>
       <c r="Q31" s="271">
-        <v>7.5</v>
+        <v>7.49</v>
       </c>
       <c r="R31" s="272">
-        <v>6.6</v>
+        <v>6.58</v>
       </c>
       <c r="S31" s="273">
-        <v>7</v>
+        <v>6.95</v>
       </c>
       <c r="T31" s="274">
-        <v>7.9</v>
+        <v>7.89</v>
       </c>
       <c r="U31" s="275">
-        <v>6.9</v>
+        <v>6.93</v>
       </c>
       <c r="V31" s="276">
-        <v>7.4</v>
+        <v>7.39</v>
       </c>
       <c r="W31" s="277">
-        <v>8</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="X31" s="278">
-        <v>9.3000000000000007</v>
+        <v>9.33</v>
       </c>
       <c r="Y31" s="279">
-        <v>9.6999999999999993</v>
+        <v>9.69</v>
       </c>
       <c r="Z31" s="280">
-        <v>10.6</v>
+        <v>10.57</v>
       </c>
       <c r="AA31" s="281">
         <v>11.6</v>
       </c>
       <c r="AB31" s="282">
-        <v>13</v>
+        <v>12.99</v>
       </c>
       <c r="AC31" s="283">
         <v>14.6</v>
       </c>
       <c r="AD31" s="284">
-        <v>16.8</v>
+        <v>16.78</v>
       </c>
       <c r="AE31" s="285">
-        <v>18.3</v>
+        <v>18.260000000000002</v>
       </c>
       <c r="AF31" s="286">
-        <v>19.100000000000001</v>
+        <v>19.079999999999998</v>
       </c>
       <c r="AG31" s="287">
-        <v>20.100000000000001</v>
+        <v>20.09</v>
       </c>
       <c r="AH31" s="288">
-        <v>22.2</v>
+        <v>22.21</v>
       </c>
       <c r="AI31" s="289">
-        <v>25</v>
+        <v>24.99</v>
       </c>
       <c r="AJ31" s="290">
-        <v>28.1</v>
+        <v>28.12</v>
       </c>
       <c r="AK31" s="291">
-        <v>32.299999999999997</v>
+        <v>32.32</v>
       </c>
       <c r="AL31" s="292">
-        <v>35.700000000000003</v>
+        <v>35.71</v>
       </c>
       <c r="AM31" s="293">
-        <v>37.6</v>
+        <v>37.64</v>
       </c>
       <c r="AN31" s="294">
-        <v>38.700000000000003</v>
+        <v>38.659999999999997</v>
       </c>
       <c r="AO31" s="295">
-        <v>42.4</v>
+        <v>42.39</v>
       </c>
       <c r="AP31" s="296">
-        <v>45.6</v>
+        <v>45.56</v>
       </c>
       <c r="AQ31" s="297">
         <v>50.3</v>
@@ -26273,137 +26273,137 @@
       </c>
     </row>
     <row r="32" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>256</v>
       </c>
       <c r="E32" s="6">
-        <v>56.4</v>
+        <v>56.37</v>
       </c>
       <c r="F32" s="7">
-        <v>61.4</v>
+        <v>61.41</v>
       </c>
       <c r="G32" s="8">
-        <v>65</v>
+        <v>65.02</v>
       </c>
       <c r="H32" s="9">
-        <v>67.099999999999994</v>
+        <v>67.06</v>
       </c>
       <c r="I32" s="10">
-        <v>72.5</v>
+        <v>72.52</v>
       </c>
       <c r="J32" s="11">
-        <v>74.8</v>
+        <v>74.78</v>
       </c>
       <c r="K32" s="12">
-        <v>75</v>
+        <v>75.02</v>
       </c>
       <c r="L32" s="13">
-        <v>79.400000000000006</v>
+        <v>79.38</v>
       </c>
       <c r="M32" s="14">
-        <v>86.6</v>
+        <v>86.64</v>
       </c>
       <c r="N32" s="15">
-        <v>89.4</v>
+        <v>89.43</v>
       </c>
       <c r="O32" s="16">
-        <v>88.7</v>
+        <v>88.65</v>
       </c>
       <c r="P32" s="17">
-        <v>101.2</v>
+        <v>101.15</v>
       </c>
       <c r="Q32" s="18">
-        <v>117.3</v>
+        <v>117.28</v>
       </c>
       <c r="R32" s="19">
         <v>121.5</v>
       </c>
       <c r="S32" s="20">
-        <v>132.19999999999999</v>
+        <v>132.15</v>
       </c>
       <c r="T32" s="21">
-        <v>147.6</v>
+        <v>147.61000000000001</v>
       </c>
       <c r="U32" s="22">
-        <v>159.69999999999999</v>
+        <v>159.66999999999999</v>
       </c>
       <c r="V32" s="23">
         <v>178.1</v>
       </c>
       <c r="W32" s="24">
-        <v>191.8</v>
+        <v>191.79</v>
       </c>
       <c r="X32" s="25">
-        <v>210.1</v>
+        <v>210.12</v>
       </c>
       <c r="Y32" s="26">
-        <v>198.9</v>
+        <v>198.85</v>
       </c>
       <c r="Z32" s="27">
-        <v>204.2</v>
+        <v>204.15</v>
       </c>
       <c r="AA32" s="28">
-        <v>205.9</v>
+        <v>205.86</v>
       </c>
       <c r="AB32" s="29">
-        <v>222.5</v>
+        <v>222.53</v>
       </c>
       <c r="AC32" s="30">
-        <v>240.4</v>
+        <v>240.39</v>
       </c>
       <c r="AD32" s="31">
-        <v>267.3</v>
+        <v>267.26</v>
       </c>
       <c r="AE32" s="32">
-        <v>275.8</v>
+        <v>275.77</v>
       </c>
       <c r="AF32" s="33">
-        <v>282.60000000000002</v>
+        <v>282.64</v>
       </c>
       <c r="AG32" s="34">
-        <v>295</v>
+        <v>294.98</v>
       </c>
       <c r="AH32" s="35">
-        <v>322.39999999999998</v>
+        <v>322.42</v>
       </c>
       <c r="AI32" s="36">
-        <v>338.9</v>
+        <v>338.87</v>
       </c>
       <c r="AJ32" s="37">
-        <v>357.3</v>
+        <v>357.34</v>
       </c>
       <c r="AK32" s="38">
-        <v>399.3</v>
+        <v>399.28</v>
       </c>
       <c r="AL32" s="39">
-        <v>422.4</v>
+        <v>422.36</v>
       </c>
       <c r="AM32" s="40">
-        <v>429.3</v>
+        <v>429.28</v>
       </c>
       <c r="AN32" s="41">
-        <v>442</v>
+        <v>441.98</v>
       </c>
       <c r="AO32" s="42">
         <v>473.6</v>
       </c>
       <c r="AP32" s="43">
-        <v>525.20000000000005</v>
+        <v>525.16</v>
       </c>
       <c r="AQ32" s="44">
-        <v>589.70000000000005</v>
+        <v>589.74</v>
       </c>
       <c r="AR32" s="45">
-        <v>624.20000000000005</v>
+        <v>624.15</v>
       </c>
       <c r="AS32" s="46">
         <v>648.29999999999995</v>
@@ -27047,67 +27047,67 @@
         <v>256</v>
       </c>
       <c r="E33" s="259">
-        <v>56.6</v>
+        <v>56.64</v>
       </c>
       <c r="F33" s="260">
-        <v>62.1</v>
+        <v>62.08</v>
       </c>
       <c r="G33" s="261">
-        <v>65.8</v>
+        <v>65.75</v>
       </c>
       <c r="H33" s="262">
-        <v>67.7</v>
+        <v>67.67</v>
       </c>
       <c r="I33" s="263">
-        <v>73.099999999999994</v>
+        <v>73.06</v>
       </c>
       <c r="J33" s="264">
-        <v>75.8</v>
+        <v>75.75</v>
       </c>
       <c r="K33" s="265">
-        <v>76</v>
+        <v>76.02</v>
       </c>
       <c r="L33" s="266">
-        <v>80.599999999999994</v>
+        <v>80.61</v>
       </c>
       <c r="M33" s="267">
-        <v>87.8</v>
+        <v>87.84</v>
       </c>
       <c r="N33" s="268">
-        <v>90.4</v>
+        <v>90.41</v>
       </c>
       <c r="O33" s="269">
-        <v>89.5</v>
+        <v>89.52</v>
       </c>
       <c r="P33" s="270">
-        <v>102.3</v>
+        <v>102.27</v>
       </c>
       <c r="Q33" s="271">
-        <v>118.8</v>
+        <v>118.75</v>
       </c>
       <c r="R33" s="272">
         <v>122.5</v>
       </c>
       <c r="S33" s="273">
-        <v>133.4</v>
+        <v>133.41999999999999</v>
       </c>
       <c r="T33" s="274">
-        <v>148.5</v>
+        <v>148.54</v>
       </c>
       <c r="U33" s="275">
-        <v>160.69999999999999</v>
+        <v>160.65</v>
       </c>
       <c r="V33" s="276">
-        <v>179.6</v>
+        <v>179.59</v>
       </c>
       <c r="W33" s="277">
-        <v>194</v>
+        <v>194.01</v>
       </c>
       <c r="X33" s="278">
-        <v>213.4</v>
+        <v>213.37</v>
       </c>
       <c r="Y33" s="279">
-        <v>200.4</v>
+        <v>200.36</v>
       </c>
       <c r="Z33" s="280">
         <v>207.5</v>
@@ -27116,55 +27116,55 @@
         <v>209.7</v>
       </c>
       <c r="AB33" s="282">
-        <v>225.5</v>
+        <v>225.53</v>
       </c>
       <c r="AC33" s="283">
-        <v>244.8</v>
+        <v>244.76</v>
       </c>
       <c r="AD33" s="284">
-        <v>272.2</v>
+        <v>272.24</v>
       </c>
       <c r="AE33" s="285">
-        <v>281.2</v>
+        <v>281.19</v>
       </c>
       <c r="AF33" s="286">
-        <v>290.8</v>
+        <v>290.83999999999997</v>
       </c>
       <c r="AG33" s="287">
-        <v>303.8</v>
+        <v>303.81</v>
       </c>
       <c r="AH33" s="288">
-        <v>332.7</v>
+        <v>332.72</v>
       </c>
       <c r="AI33" s="289">
         <v>348.8</v>
       </c>
       <c r="AJ33" s="290">
-        <v>368.5</v>
+        <v>368.51</v>
       </c>
       <c r="AK33" s="291">
-        <v>410.3</v>
+        <v>410.26</v>
       </c>
       <c r="AL33" s="292">
-        <v>435.3</v>
+        <v>435.33</v>
       </c>
       <c r="AM33" s="293">
-        <v>439.7</v>
+        <v>439.73</v>
       </c>
       <c r="AN33" s="294">
-        <v>454.4</v>
+        <v>454.35</v>
       </c>
       <c r="AO33" s="295">
-        <v>486.9</v>
+        <v>486.86</v>
       </c>
       <c r="AP33" s="296">
-        <v>536.70000000000005</v>
+        <v>536.65</v>
       </c>
       <c r="AQ33" s="297">
-        <v>600.70000000000005</v>
+        <v>600.67999999999995</v>
       </c>
       <c r="AR33" s="298">
-        <v>645.6</v>
+        <v>645.63</v>
       </c>
       <c r="AS33" s="299">
         <v>659.6</v>
